--- a/IO Assignment.xlsx
+++ b/IO Assignment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="17040" windowHeight="9210"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>PWM Outputs</t>
   </si>
@@ -199,13 +199,25 @@
   </si>
   <si>
     <t>Bobcat 2013 IO Assignments</t>
+  </si>
+  <si>
+    <t>Upper Limit Switch</t>
+  </si>
+  <si>
+    <t>Lower Limit Switch</t>
+  </si>
+  <si>
+    <t>Shooter Encoder A</t>
+  </si>
+  <si>
+    <t>Shooter Encoder B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -449,11 +461,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,12 +551,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -612,6 +641,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -646,6 +676,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -821,17 +852,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
@@ -846,7 +877,7 @@
     <col min="14" max="14" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>59</v>
       </c>
@@ -865,7 +896,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -882,7 +913,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -899,7 +930,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -926,7 +957,7 @@
       <c r="N4" s="28"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -959,7 +990,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -996,7 +1027,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1027,7 +1058,7 @@
       <c r="N7" s="5"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1058,7 +1089,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1091,7 +1122,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1120,7 +1151,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1145,7 +1176,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1170,7 +1201,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1189,7 +1220,7 @@
       <c r="N13" s="9"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -1208,7 +1239,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1225,7 +1256,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="15">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1281,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -1281,7 +1312,7 @@
       <c r="N17" s="9"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -1308,7 +1339,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -1335,7 +1366,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="15">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -1362,7 +1393,7 @@
       <c r="N20" s="10"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -1387,11 +1418,13 @@
       <c r="N21" s="9"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4">
         <v>6</v>
@@ -1410,11 +1443,13 @@
       <c r="N22" s="9"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4">
         <v>7</v>
@@ -1433,11 +1468,13 @@
       <c r="N23" s="9"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="6">
         <v>8</v>
@@ -1456,11 +1493,13 @@
       <c r="N24" s="9"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1477,7 +1516,7 @@
       <c r="N25" s="9"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -1498,7 +1537,7 @@
       <c r="N26" s="9"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="15" thickBot="1">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -1519,7 +1558,7 @@
       <c r="N27" s="9"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -1542,7 +1581,7 @@
       <c r="N28" s="9"/>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -1567,7 +1606,7 @@
       <c r="N29" s="9"/>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>14</v>
       </c>
@@ -1590,7 +1629,7 @@
       <c r="N30" s="9"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" ht="15" thickBot="1">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1611,7 +1650,7 @@
       <c r="N31" s="9"/>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" thickBot="1">
+    <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1673,7 @@
       <c r="N32" s="9"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>1</v>
       </c>
@@ -1657,7 +1696,7 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" ht="15" thickBot="1">
+    <row r="34" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2</v>
       </c>
@@ -1678,7 +1717,7 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>3</v>
       </c>
@@ -1697,7 +1736,7 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>4</v>
       </c>
@@ -1716,7 +1755,7 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>5</v>
       </c>
@@ -1735,7 +1774,7 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1752,7 +1791,7 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1769,7 +1808,7 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1786,7 +1825,7 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1803,7 +1842,7 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1839,7 +1878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1849,14 +1888,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>39</v>
       </c>
@@ -1888,7 +1927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>32</v>
       </c>
@@ -1914,7 +1953,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>31</v>
       </c>
@@ -1940,7 +1979,7 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -1975,7 +2014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
@@ -1991,7 +2030,7 @@
       <c r="I5" s="23"/>
       <c r="J5" s="23"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>0.04</v>
       </c>
@@ -1999,7 +2038,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -2014,13 +2053,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IO Assignment.xlsx
+++ b/IO Assignment.xlsx
@@ -18,8 +18,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>CSC</author>
+  </authors>
+  <commentList>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>CSC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Maybe able to use same solenoid as PTO
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>PWM Outputs</t>
   </si>
@@ -39,9 +74,6 @@
     <t>Left Encoder B</t>
   </si>
   <si>
-    <t>Solenoid Outputs</t>
-  </si>
-  <si>
     <t>Shifter</t>
   </si>
   <si>
@@ -222,9 +254,6 @@
     <t>Pickup</t>
   </si>
   <si>
-    <t>Climber Deploy</t>
-  </si>
-  <si>
     <t>PTO</t>
   </si>
   <si>
@@ -234,17 +263,32 @@
     <t>Climber Break</t>
   </si>
   <si>
-    <t>Frizbie Dump</t>
-  </si>
-  <si>
-    <t>Frizbie Flip</t>
+    <t>Shooter Pin</t>
+  </si>
+  <si>
+    <t>Shooter Feed</t>
+  </si>
+  <si>
+    <t>Shooter Elevation</t>
+  </si>
+  <si>
+    <t>Solenoid Outputs 2</t>
+  </si>
+  <si>
+    <t>Climber Deploy Out</t>
+  </si>
+  <si>
+    <t>Climber Deploy In</t>
+  </si>
+  <si>
+    <t>Solenoid Outputs 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +307,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -291,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -488,22 +545,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,7 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,7 +929,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -892,7 +937,7 @@
     <col min="1" max="1" width="3.19921875" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" customWidth="1"/>
     <col min="7" max="7" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="12.59765625" customWidth="1"/>
     <col min="10" max="10" width="2.8984375" style="1" customWidth="1"/>
@@ -903,23 +948,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.8">
-      <c r="A1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
+      <c r="A1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2"/>
@@ -956,30 +1001,30 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="D4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="27"/>
+      <c r="G4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="27"/>
+      <c r="J4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="26"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="29"/>
+      <c r="M4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="28"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15">
@@ -987,30 +1032,30 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="9"/>
       <c r="M5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="2"/>
@@ -1020,35 +1065,35 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4">
         <v>2</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O6" s="2"/>
     </row>
@@ -1057,21 +1102,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4">
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4">
@@ -1090,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4">
@@ -1104,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="4">
@@ -1123,14 +1168,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4">
@@ -1142,14 +1187,14 @@
         <v>3</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="4">
         <v>3</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -1158,14 +1203,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4">
@@ -1189,14 +1234,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4">
@@ -1216,15 +1261,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="6">
         <v>8</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
         <v>8</v>
@@ -1243,7 +1286,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1296,25 +1339,25 @@
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="27"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="27"/>
+      <c r="D16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="26"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="27"/>
+      <c r="G16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="26"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="32"/>
+      <c r="J16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="31"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1325,25 +1368,25 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4">
         <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
@@ -1362,7 +1405,9 @@
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4">
         <v>2</v>
@@ -1370,7 +1415,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="2"/>
       <c r="J18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="9"/>
@@ -1389,7 +1434,9 @@
       <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4">
         <v>3</v>
@@ -1397,7 +1444,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
       <c r="J19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="2"/>
@@ -1424,7 +1471,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="2"/>
       <c r="J20" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="10"/>
@@ -1457,12 +1504,12 @@
       <c r="N21" s="9"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="14.4" thickBot="1">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>62</v>
+      <c r="B22" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4">
@@ -1486,8 +1533,8 @@
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>63</v>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4">
@@ -1495,8 +1542,10 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="26"/>
       <c r="I23" s="2"/>
       <c r="J23" s="4">
         <v>3</v>
@@ -1511,17 +1560,21 @@
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>64</v>
+      <c r="B24" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="6">
         <v>8</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="I24" s="2"/>
       <c r="J24" s="4">
         <v>4</v>
@@ -1536,15 +1589,17 @@
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>65</v>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="4">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5"/>
       <c r="I25" s="2"/>
       <c r="J25" s="4">
         <v>5</v>
@@ -1560,14 +1615,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="4">
+        <v>3</v>
+      </c>
+      <c r="H26" s="5"/>
       <c r="I26" s="2"/>
       <c r="J26" s="4">
         <v>6</v>
@@ -1583,14 +1640,16 @@
         <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="4">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="2"/>
       <c r="J27" s="4">
         <v>7</v>
@@ -1607,13 +1666,15 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="32"/>
+      <c r="D28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="31"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="4">
+        <v>5</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="2"/>
       <c r="J28" s="4">
         <v>8</v>
@@ -1634,11 +1695,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="4">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5"/>
       <c r="I29" s="2"/>
       <c r="J29" s="4">
         <v>9</v>
@@ -1660,8 +1723,10 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="4">
+        <v>7</v>
+      </c>
+      <c r="H30" s="5"/>
       <c r="I30" s="2"/>
       <c r="J30" s="4">
         <v>10</v>
@@ -1681,8 +1746,10 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="6">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7"/>
       <c r="I31" s="2"/>
       <c r="J31" s="11">
         <v>11</v>
@@ -1694,10 +1761,10 @@
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15" ht="14.4" thickBot="1">
-      <c r="A32" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="27"/>
+      <c r="A32" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="26"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4">
         <v>4</v>
@@ -1721,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="4">
@@ -1901,7 +1968,7 @@
       <c r="O42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="M4:N4"/>
@@ -1909,14 +1976,16 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="78" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1940,39 +2009,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" thickBot="1">
       <c r="A1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="17">
         <v>2</v>
@@ -1987,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="17">
         <v>360</v>
@@ -1998,7 +2067,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="15">
         <v>3</v>
@@ -2013,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="15">
         <v>360</v>
@@ -2024,7 +2093,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="15">
         <v>4</v>
@@ -2039,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="15">
         <v>1408</v>
@@ -2054,12 +2123,12 @@
         <v>2112</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="15">
         <v>6</v>

--- a/IO Assignment.xlsx
+++ b/IO Assignment.xlsx
@@ -30,43 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>CSC</author>
-  </authors>
-  <commentList>
-    <comment ref="E19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>CSC:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Maybe able to use same solenoid as PTO
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>PWM Outputs</t>
   </si>
@@ -147,9 +112,6 @@
   </si>
   <si>
     <t>Piviot Omni</t>
-  </si>
-  <si>
-    <t>Omni</t>
   </si>
   <si>
     <t>CAN</t>
@@ -263,16 +225,7 @@
     <t>Shooter2 Encoder B</t>
   </si>
   <si>
-    <t>Pickup</t>
-  </si>
-  <si>
     <t>PTO</t>
-  </si>
-  <si>
-    <t>Pickup Deploy</t>
-  </si>
-  <si>
-    <t>Climber Break</t>
   </si>
   <si>
     <t>Shooter Pin</t>
@@ -432,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,19 +404,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5263,23 +5203,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="61729408"/>
-        <c:axId val="72995200"/>
+        <c:axId val="112675456"/>
+        <c:axId val="69505408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61729408"/>
+        <c:axId val="112675456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72995200"/>
+        <c:crossAx val="69505408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72995200"/>
+        <c:axId val="69505408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5287,7 +5227,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61729408"/>
+        <c:crossAx val="112675456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6804,22 +6744,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="71843840"/>
-        <c:axId val="71845376"/>
+        <c:axId val="70529024"/>
+        <c:axId val="70530560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71843840"/>
+        <c:axId val="70529024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71845376"/>
+        <c:crossAx val="70530560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71845376"/>
+        <c:axId val="70530560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,7 +6767,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71843840"/>
+        <c:crossAx val="70529024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8344,22 +8284,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73037696"/>
-        <c:axId val="73039232"/>
+        <c:axId val="70600576"/>
+        <c:axId val="70602112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73037696"/>
+        <c:axId val="70600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73039232"/>
+        <c:crossAx val="70602112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73039232"/>
+        <c:axId val="70602112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8367,7 +8307,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73037696"/>
+        <c:crossAx val="70600576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8785,7 +8725,7 @@
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8805,7 +8745,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="23.25">
       <c r="A1" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -8863,7 +8803,7 @@
       <c r="B4" s="28"/>
       <c r="C4" s="2"/>
       <c r="D4" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="2"/>
@@ -8888,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4">
@@ -8902,7 +8842,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
@@ -8921,21 +8861,21 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4">
         <v>2</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
@@ -8958,21 +8898,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="G7" s="4">
         <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4">
@@ -8991,21 +8929,21 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="4">
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="4">
@@ -9024,14 +8962,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4">
@@ -9059,14 +8997,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4">
@@ -9090,14 +9028,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="4">
@@ -9117,14 +9055,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="6">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="6">
@@ -9143,9 +9081,7 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -9203,7 +9139,7 @@
       <c r="B16" s="28"/>
       <c r="C16" s="2"/>
       <c r="D16" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="2"/>
@@ -9255,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4">
@@ -9282,15 +9218,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4">
         <v>3</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="2"/>
       <c r="G19" s="4">
         <v>3</v>
@@ -9311,15 +9245,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E20" s="5"/>
       <c r="F20" s="2"/>
       <c r="G20" s="4">
         <v>4</v>
@@ -9340,7 +9272,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4">
@@ -9365,7 +9297,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="4">
@@ -9390,7 +9322,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="4">
@@ -9417,7 +9349,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="6">
@@ -9446,7 +9378,7 @@
         <v>9</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -9471,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -9496,7 +9428,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -9523,7 +9455,7 @@
       <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E28" s="33"/>
       <c r="F28" s="2"/>
@@ -9551,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="4">
@@ -9841,7 +9773,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="78" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9865,39 +9796,39 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="19" t="s">
-        <v>46</v>
-      </c>
       <c r="J1" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="17">
         <v>2</v>
@@ -9912,7 +9843,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="17">
         <v>360</v>
@@ -9923,7 +9854,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="15">
         <v>3</v>
@@ -9938,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="15">
         <v>360</v>
@@ -9949,7 +9880,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="15">
         <v>4</v>
@@ -9964,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="15">
         <v>1408</v>
@@ -9979,12 +9910,12 @@
         <v>2112</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="15">
         <v>6</v>
@@ -10039,13 +9970,13 @@
   <sheetData>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f>PI()*D2</f>
@@ -10054,44 +9985,44 @@
     </row>
     <row r="3" spans="1:10">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="28.5">
       <c r="B7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="E7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8">
         <v>613.64</v>
@@ -10126,7 +10057,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>270</v>
@@ -10179,40 +10110,40 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D1">
         <v>0.05</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F1">
         <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I1">
         <v>0.02</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="N1">
         <v>0.12</v>
       </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P1">
         <v>0.05</v>
@@ -10220,40 +10151,40 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B2">
         <v>0.01</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>0.01</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I2">
         <v>4.5</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P2">
         <v>0.01</v>
@@ -10261,31 +10192,31 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>2E-3</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P3">
         <v>2E-3</v>
@@ -10293,7 +10224,7 @@
     </row>
     <row r="5" spans="1:21" ht="28.5">
       <c r="B5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -10302,52 +10233,52 @@
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -46638,7 +46569,7 @@
         <v>449</v>
       </c>
       <c r="B454">
-        <f t="shared" ref="B454:B517" si="158">A454*Ts</f>
+        <f t="shared" ref="B454:B494" si="158">A454*Ts</f>
         <v>8.98</v>
       </c>
       <c r="C454" s="1">
@@ -46686,7 +46617,7 @@
         <v>0</v>
       </c>
       <c r="N454" s="1">
-        <f t="shared" ref="N454:N517" si="159">IF(H454&lt;2,0,K454*Sp +L454*Si + M454*Sd)</f>
+        <f t="shared" ref="N454:N494" si="159">IF(H454&lt;2,0,K454*Sp +L454*Si + M454*Sd)</f>
         <v>0</v>
       </c>
       <c r="O454" s="1">
@@ -46702,7 +46633,7 @@
         <v>0</v>
       </c>
       <c r="R454" s="1">
-        <f t="shared" ref="R454:R517" si="160">IF(H454&lt;2,0,MIN(O454*Dp +P454*Di + Q454*Dd,1)*Speed)</f>
+        <f t="shared" ref="R454:R494" si="160">IF(H454&lt;2,0,MIN(O454*Dp +P454*Di + Q454*Dd,1)*Speed)</f>
         <v>0</v>
       </c>
       <c r="T454">

--- a/IO Assignment.xlsx
+++ b/IO Assignment.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="17040" windowHeight="9210"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="17040" windowHeight="9210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IO Assignment" sheetId="1" r:id="rId1"/>
     <sheet name="CAN" sheetId="2" r:id="rId2"/>
     <sheet name="Encoder Calcs" sheetId="3" r:id="rId3"/>
-    <sheet name="PID" sheetId="4" r:id="rId4"/>
-    <sheet name="X" sheetId="5" r:id="rId5"/>
-    <sheet name="SPID" sheetId="7" r:id="rId6"/>
-    <sheet name="DPID" sheetId="6" r:id="rId7"/>
+    <sheet name="Shooter PID" sheetId="8" r:id="rId4"/>
+    <sheet name="PID" sheetId="4" r:id="rId5"/>
+    <sheet name="X" sheetId="5" r:id="rId6"/>
+    <sheet name="SPID" sheetId="7" r:id="rId7"/>
+    <sheet name="DPID" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Dd">PID!$B$3</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
   <si>
     <t>PWM Outputs</t>
   </si>
@@ -379,6 +380,36 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Setpoint</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>totalError</t>
+  </si>
+  <si>
+    <t>Iterm</t>
+  </si>
+  <si>
+    <t>Raw Result</t>
+  </si>
+  <si>
+    <t>Clipped Result</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Accel Factor</t>
+  </si>
+  <si>
+    <t>THIS IS A REALLY CRUDE MOTOR MODEL</t>
   </si>
 </sst>
 </file>
@@ -734,6 +765,263 @@
   <c:chart>
     <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Shooter PID'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Shooter PID'!$E$2:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.70000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Shooter PID'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Encoder</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Shooter PID'!$F$2:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2992.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2999.9812499999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000.0009375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2999.999953125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3000.0000023437501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2999.9999998828125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3000.000000005859</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2999.9999999997071</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3000.0000000000146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2999.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="63660800"/>
+        <c:axId val="63662720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="63660800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63662720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63662720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63660800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
@@ -5203,23 +5491,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="112675456"/>
-        <c:axId val="69505408"/>
+        <c:axId val="53339264"/>
+        <c:axId val="74675328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112675456"/>
+        <c:axId val="53339264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69505408"/>
+        <c:crossAx val="74675328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69505408"/>
+        <c:axId val="74675328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5227,24 +5515,27 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112675456"/>
+        <c:crossAx val="53339264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -6744,22 +7035,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70529024"/>
-        <c:axId val="70530560"/>
+        <c:axId val="62313216"/>
+        <c:axId val="62314752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70529024"/>
+        <c:axId val="62313216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70530560"/>
+        <c:crossAx val="62314752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70530560"/>
+        <c:axId val="62314752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,24 +7058,27 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70529024"/>
+        <c:crossAx val="62313216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8284,22 +8578,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70600576"/>
-        <c:axId val="70602112"/>
+        <c:axId val="65907328"/>
+        <c:axId val="65921408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70600576"/>
+        <c:axId val="65907328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70602112"/>
+        <c:crossAx val="65921408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70602112"/>
+        <c:axId val="65921408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8307,13 +8601,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70600576"/>
+        <c:crossAx val="65907328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -8324,7 +8619,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8335,7 +8630,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8346,7 +8641,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="120" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8355,15 +8650,23 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8652164" cy="6276109"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8376,7 +8679,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8408,6 +8711,33 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8652164" cy="6276109"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8724,7 +9054,7 @@
   </sheetPr>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -10097,6 +10427,4938 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q92"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>D2*$B$5</f>
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>$B$6-F2</f>
+        <v>3000</v>
+      </c>
+      <c r="H2">
+        <f>IF(I2&lt;1,IF(I2&gt;-1,G2,-1/$B$2),1/$B$2)</f>
+        <v>3000</v>
+      </c>
+      <c r="I2">
+        <f>(0+G2)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>G2*$B$1</f>
+        <v>-3.0000000000000002E-2</v>
+      </c>
+      <c r="K2">
+        <f>$B$2*H2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>$B$3*(G2-0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>$B$6*$B$4</f>
+        <v>-0.6</v>
+      </c>
+      <c r="N2">
+        <f>SUM(J2:M2)</f>
+        <v>-0.63</v>
+      </c>
+      <c r="O2">
+        <f>IF(N2&gt;1,1,IF(N2&lt;-1,-1,N2))</f>
+        <v>-0.63</v>
+      </c>
+      <c r="P2">
+        <f>(-1/$B$4)+(1+O2)/$B$4</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">D3*$B$5</f>
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <f>P2</f>
+        <v>3150</v>
+      </c>
+      <c r="G3">
+        <f>$B$6-F3</f>
+        <v>-150</v>
+      </c>
+      <c r="H3">
+        <f>IF(I3&lt;1,IF(I3&gt;-1,H2+G3,-1/$B$2),1/$B$2)</f>
+        <v>2850</v>
+      </c>
+      <c r="I3">
+        <f>(H2+G3)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="1">G3*$B$1</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="2">$B$2*H3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>$B$3*(G3-G2)</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="3">$B$6*$B$4</f>
+        <v>-0.6</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N66" si="4">SUM(J3:M3)</f>
+        <v>-0.59850000000000003</v>
+      </c>
+      <c r="O3">
+        <f>IF(N3&gt;1,1,IF(N3&lt;-1,-1,N3))</f>
+        <v>-0.59850000000000003</v>
+      </c>
+      <c r="P3">
+        <f>(-1/$B$4)+(1+O3)/$B$4</f>
+        <v>2992.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <f>-1/5000</f>
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="5">P3</f>
+        <v>2992.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="6">$B$6-F4</f>
+        <v>7.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="7">IF(I4&lt;1,IF(I4&gt;-1,H3+G4,-1/$B$2),1/$B$2)</f>
+        <v>2857.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="8">(H3+G4)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-7.5000000000000007E-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="9">$B$3*(G4-G3)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="4"/>
+        <v>-0.60007500000000003</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O67" si="10">IF(N4&gt;1,1,IF(N4&lt;-1,-1,N4))</f>
+        <v>-0.60007500000000003</v>
+      </c>
+      <c r="P4">
+        <f>(-1/$B$4)+(1+O4)/$B$4</f>
+        <v>3000.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>3000.375</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="6"/>
+        <v>-0.375</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="7"/>
+        <v>2857.125</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>3.7500000000000005E-6</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>-0.59999625000000001</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="10"/>
+        <v>-0.59999625000000001</v>
+      </c>
+      <c r="P5">
+        <f>(-1/$B$4)+(1+O5)/$B$4</f>
+        <v>2999.9812499999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>2999.9812499999998</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="6"/>
+        <v>1.8750000000181899E-2</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="7"/>
+        <v>2857.1437500000002</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-1.8750000000181901E-7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>-0.60000018749999995</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="10"/>
+        <v>-0.60000018749999995</v>
+      </c>
+      <c r="P6">
+        <f>(-1/$B$4)+(1+O6)/$B$4</f>
+        <v>3000.0009375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>3000.0009375</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>-9.3749999996362021E-4</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="7"/>
+        <v>2857.1428125000002</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>9.3749999996362022E-9</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>-0.59999999062499998</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="10"/>
+        <v>-0.59999999062499998</v>
+      </c>
+      <c r="P7">
+        <f>(-1/$B$4)+(1+O7)/$B$4</f>
+        <v>2999.999953125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>2999.999953125</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="6"/>
+        <v>4.6874999952706276E-5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
+        <v>2857.1428593750002</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>-4.6874999952706275E-10</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>-0.60000000046875002</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="10"/>
+        <v>-0.60000000046875002</v>
+      </c>
+      <c r="P8">
+        <f>(-1/$B$4)+(1+O8)/$B$4</f>
+        <v>3000.0000023437501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>3000.0000023437501</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="6"/>
+        <v>-2.3437501113221515E-6</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="7"/>
+        <v>2857.1428570312501</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2.3437501113221516E-11</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>-0.5999999999765625</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="10"/>
+        <v>-0.5999999999765625</v>
+      </c>
+      <c r="P9">
+        <f>(-1/$B$4)+(1+O9)/$B$4</f>
+        <v>2999.9999998828125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>2999.9999998828125</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>1.1718748282874003E-7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="7"/>
+        <v>2857.1428571484375</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-1.1718748282874004E-12</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>-0.60000000000117182</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="10"/>
+        <v>-0.60000000000117182</v>
+      </c>
+      <c r="P10">
+        <f>(-1/$B$4)+(1+O10)/$B$4</f>
+        <v>3000.000000005859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>3000.000000005859</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>-5.8589648688212037E-9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="7"/>
+        <v>2857.1428571425786</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>5.8589648688212042E-14</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>-0.59999999999994136</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="10"/>
+        <v>-0.59999999999994136</v>
+      </c>
+      <c r="P11">
+        <f>(-1/$B$4)+(1+O11)/$B$4</f>
+        <v>2999.9999999997071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="D12" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>2999.9999999997071</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="6"/>
+        <v>2.9285729397088289E-10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428714</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-2.9285729397088291E-15</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>-0.60000000000000286</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>-0.60000000000000286</v>
+      </c>
+      <c r="P12">
+        <f>(-1/$B$4)+(1+O12)/$B$4</f>
+        <v>3000.0000000000146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="D13" s="1">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>3000.0000000000146</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="6"/>
+        <v>-1.4551915228366852E-11</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1.4551915228366853E-16</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>-0.59999999999999987</v>
+      </c>
+      <c r="P13">
+        <f>(-1/$B$4)+(1+O13)/$B$4</f>
+        <v>2999.9999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>2999.9999999999991</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P14">
+        <f>(-1/$B$4)+(1+O14)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P15">
+        <f>(-1/$B$4)+(1+O15)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P16">
+        <f>(-1/$B$4)+(1+O16)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16">
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P17">
+        <f>(-1/$B$4)+(1+O17)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16">
+      <c r="D18" s="1">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P18">
+        <f>(-1/$B$4)+(1+O18)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16">
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P19">
+        <f>(-1/$B$4)+(1+O19)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16">
+      <c r="D20" s="1">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P20">
+        <f>(-1/$B$4)+(1+O20)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16">
+      <c r="D21" s="1">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P21">
+        <f>(-1/$B$4)+(1+O21)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16">
+      <c r="D22" s="1">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P22">
+        <f>(-1/$B$4)+(1+O22)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16">
+      <c r="D23" s="1">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P23">
+        <f>(-1/$B$4)+(1+O23)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16">
+      <c r="D24" s="1">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P24">
+        <f>(-1/$B$4)+(1+O24)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16">
+      <c r="D25" s="1">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P25">
+        <f>(-1/$B$4)+(1+O25)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16">
+      <c r="D26" s="1">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P26">
+        <f>(-1/$B$4)+(1+O26)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16">
+      <c r="D27" s="1">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P27">
+        <f>(-1/$B$4)+(1+O27)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16">
+      <c r="D28" s="1">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P28">
+        <f>(-1/$B$4)+(1+O28)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16">
+      <c r="D29" s="1">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P29">
+        <f>(-1/$B$4)+(1+O29)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16">
+      <c r="D30" s="1">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P30">
+        <f>(-1/$B$4)+(1+O30)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16">
+      <c r="D31" s="1">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P31">
+        <f>(-1/$B$4)+(1+O31)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16">
+      <c r="D32" s="1">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P32">
+        <f>(-1/$B$4)+(1+O32)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16">
+      <c r="D33" s="1">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P33">
+        <f>(-1/$B$4)+(1+O33)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16">
+      <c r="D34" s="1">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P34">
+        <f>(-1/$B$4)+(1+O34)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16">
+      <c r="D35" s="1">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P35">
+        <f>(-1/$B$4)+(1+O35)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16">
+      <c r="D36" s="1">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P36">
+        <f>(-1/$B$4)+(1+O36)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:16">
+      <c r="D37" s="1">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P37">
+        <f>(-1/$B$4)+(1+O37)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="4:16">
+      <c r="D38" s="1">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P38">
+        <f>(-1/$B$4)+(1+O38)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="39" spans="4:16">
+      <c r="D39" s="1">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.9000000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P39">
+        <f>(-1/$B$4)+(1+O39)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="4:16">
+      <c r="D40" s="1">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.9500000000000002</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P40">
+        <f>(-1/$B$4)+(1+O40)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="41" spans="4:16">
+      <c r="D41" s="1">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P41">
+        <f>(-1/$B$4)+(1+O41)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="4:16">
+      <c r="D42" s="1">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P42">
+        <f>(-1/$B$4)+(1+O42)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="4:16">
+      <c r="D43" s="1">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P43">
+        <f>(-1/$B$4)+(1+O43)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="44" spans="4:16">
+      <c r="D44" s="1">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>2.15</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P44">
+        <f>(-1/$B$4)+(1+O44)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16">
+      <c r="D45" s="1">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P45">
+        <f>(-1/$B$4)+(1+O45)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16">
+      <c r="D46" s="1">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P46">
+        <f>(-1/$B$4)+(1+O46)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16">
+      <c r="D47" s="1">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P47">
+        <f>(-1/$B$4)+(1+O47)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16">
+      <c r="D48" s="1">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>2.35</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P48">
+        <f>(-1/$B$4)+(1+O48)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="49" spans="4:16">
+      <c r="D49" s="1">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P49">
+        <f>(-1/$B$4)+(1+O49)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="4:16">
+      <c r="D50" s="1">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P50">
+        <f>(-1/$B$4)+(1+O50)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="51" spans="4:16">
+      <c r="D51" s="1">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P51">
+        <f>(-1/$B$4)+(1+O51)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="52" spans="4:16">
+      <c r="D52" s="1">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>2.5500000000000003</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P52">
+        <f>(-1/$B$4)+(1+O52)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="53" spans="4:16">
+      <c r="D53" s="1">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P53">
+        <f>(-1/$B$4)+(1+O53)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="54" spans="4:16">
+      <c r="D54" s="1">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>2.6500000000000004</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P54">
+        <f>(-1/$B$4)+(1+O54)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="55" spans="4:16">
+      <c r="D55" s="1">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P55">
+        <f>(-1/$B$4)+(1+O55)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="56" spans="4:16">
+      <c r="D56" s="1">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P56">
+        <f>(-1/$B$4)+(1+O56)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="57" spans="4:16">
+      <c r="D57" s="1">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P57">
+        <f>(-1/$B$4)+(1+O57)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="58" spans="4:16">
+      <c r="D58" s="1">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>2.85</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P58">
+        <f>(-1/$B$4)+(1+O58)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="59" spans="4:16">
+      <c r="D59" s="1">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P59">
+        <f>(-1/$B$4)+(1+O59)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="60" spans="4:16">
+      <c r="D60" s="1">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>2.95</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P60">
+        <f>(-1/$B$4)+(1+O60)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="4:16">
+      <c r="D61" s="1">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P61">
+        <f>(-1/$B$4)+(1+O61)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="62" spans="4:16">
+      <c r="D62" s="1">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>3.0500000000000003</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P62">
+        <f>(-1/$B$4)+(1+O62)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="63" spans="4:16">
+      <c r="D63" s="1">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P63">
+        <f>(-1/$B$4)+(1+O63)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="64" spans="4:16">
+      <c r="D64" s="1">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P64">
+        <f>(-1/$B$4)+(1+O64)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="65" spans="4:16">
+      <c r="D65" s="1">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P65">
+        <f>(-1/$B$4)+(1+O65)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="66" spans="4:16">
+      <c r="D66" s="1">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="3"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P66">
+        <f>(-1/$B$4)+(1+O66)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="67" spans="4:16">
+      <c r="D67" s="1">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E92" si="11">D67*$B$5</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="7"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J92" si="12">G67*$B$1</f>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K92" si="13">$B$2*H67</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M92" si="14">$B$6*$B$4</f>
+        <v>-0.6</v>
+      </c>
+      <c r="N67">
+        <f t="shared" ref="N67:N92" si="15">SUM(J67:M67)</f>
+        <v>-0.6</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="10"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P92" si="16">(-1/$B$4)+(1+O67)/$B$4</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="68" spans="4:16">
+      <c r="D68" s="1">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>3.35</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F92" si="17">P67</f>
+        <v>3000</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G92" si="18">$B$6-F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H92" si="19">IF(I68&lt;1,IF(I68&gt;-1,H67+G68,-1/$B$2),1/$B$2)</f>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I92" si="20">(H67+G68)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" ref="L68:L92" si="21">$B$3*(G68-G67)</f>
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O68">
+        <f t="shared" ref="O68:O92" si="22">IF(N68&gt;1,1,IF(N68&lt;-1,-1,N68))</f>
+        <v>-0.6</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="69" spans="4:16">
+      <c r="D69" s="1">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>3.4000000000000004</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="70" spans="4:16">
+      <c r="D70" s="1">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>3.45</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="71" spans="4:16">
+      <c r="D71" s="1">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="72" spans="4:16">
+      <c r="D72" s="1">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>3.5500000000000003</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="4:16">
+      <c r="D73" s="1">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>3.6</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="4:16">
+      <c r="D74" s="1">
+        <v>73</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>3.6500000000000004</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="75" spans="4:16">
+      <c r="D75" s="1">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>3.7</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="76" spans="4:16">
+      <c r="D76" s="1">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="77" spans="4:16">
+      <c r="D77" s="1">
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>3.8000000000000003</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="78" spans="4:16">
+      <c r="D78" s="1">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>3.85</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="79" spans="4:16">
+      <c r="D79" s="1">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="11"/>
+        <v>3.9000000000000004</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="80" spans="4:16">
+      <c r="D80" s="1">
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>3.95</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="81" spans="4:16">
+      <c r="D81" s="1">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="82" spans="4:16">
+      <c r="D82" s="1">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="11"/>
+        <v>4.05</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="83" spans="4:16">
+      <c r="D83" s="1">
+        <v>82</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="11"/>
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="84" spans="4:16">
+      <c r="D84" s="1">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="11"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="85" spans="4:16">
+      <c r="D85" s="1">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="11"/>
+        <v>4.2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="86" spans="4:16">
+      <c r="D86" s="1">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="11"/>
+        <v>4.25</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="87" spans="4:16">
+      <c r="D87" s="1">
+        <v>86</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="11"/>
+        <v>4.3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="88" spans="4:16">
+      <c r="D88" s="1">
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="11"/>
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="89" spans="4:16">
+      <c r="D89" s="1">
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="11"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="90" spans="4:16">
+      <c r="D90" s="1">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="11"/>
+        <v>4.45</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="91" spans="4:16">
+      <c r="D91" s="1">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="11"/>
+        <v>4.5</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="92" spans="4:16">
+      <c r="D92" s="1">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="11"/>
+        <v>4.55</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="17"/>
+        <v>3000</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="19"/>
+        <v>2857.1428571428569</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="14"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="15"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="22"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="16"/>
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U494"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/IO Assignment.xlsx
+++ b/IO Assignment.xlsx
@@ -896,100 +896,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3150</c:v>
+                  <c:v>3465</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2992.5</c:v>
+                  <c:v>3212.9250000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3000.375</c:v>
+                  <c:v>3222.8216249999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2999.9812499999998</c:v>
+                  <c:v>3198.7347731250002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3000.0009375</c:v>
+                  <c:v>3180.2355557906249</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2999.999953125</c:v>
+                  <c:v>3163.1090229055781</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000.0000023437501</c:v>
+                  <c:v>3147.6475838370261</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2999.9999998828125</c:v>
+                  <c:v>3133.6475719376685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3000.000000005859</c:v>
+                  <c:v>3120.9755082030233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2999.9999999997071</c:v>
+                  <c:v>3109.50492082863</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3000.0000000000146</c:v>
+                  <c:v>3099.121950732685</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2999.9999999999991</c:v>
+                  <c:v>3089.7234660778217</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3000</c:v>
+                  <c:v>3081.2161212755773</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3000</c:v>
+                  <c:v>3073.5154206888687</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3000</c:v>
+                  <c:v>3066.5448804282396</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3000</c:v>
+                  <c:v>3060.2352685968167</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3000</c:v>
+                  <c:v>3054.5239176865603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3000</c:v>
+                  <c:v>3049.3541021588112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3000</c:v>
+                  <c:v>3044.674475042405</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3000</c:v>
+                  <c:v>3040.4385579519285</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3000</c:v>
+                  <c:v>3036.6042794611294</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3000</c:v>
+                  <c:v>3033.1335572465578</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3000</c:v>
+                  <c:v>3029.9919198512498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3000</c:v>
+                  <c:v>3027.1481643117941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="63660800"/>
-        <c:axId val="63662720"/>
+        <c:axId val="116923392"/>
+        <c:axId val="134112000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63660800"/>
+        <c:axId val="116923392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63662720"/>
+        <c:crossAx val="134112000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63662720"/>
+        <c:axId val="134112000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +997,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63660800"/>
+        <c:crossAx val="116923392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1010,7 +1010,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5491,23 +5491,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="53339264"/>
-        <c:axId val="74675328"/>
+        <c:axId val="134366336"/>
+        <c:axId val="134367872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53339264"/>
+        <c:axId val="134366336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74675328"/>
+        <c:crossAx val="134367872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74675328"/>
+        <c:axId val="134367872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5515,14 +5515,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53339264"/>
+        <c:crossAx val="134366336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5533,9 +5532,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -7035,22 +7032,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="62313216"/>
-        <c:axId val="62314752"/>
+        <c:axId val="45385984"/>
+        <c:axId val="45387776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62313216"/>
+        <c:axId val="45385984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62314752"/>
+        <c:crossAx val="45387776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62314752"/>
+        <c:axId val="45387776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7058,14 +7055,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62313216"/>
+        <c:crossAx val="45385984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -7076,9 +7072,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8578,22 +8572,22 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="65907328"/>
-        <c:axId val="65921408"/>
+        <c:axId val="117621120"/>
+        <c:axId val="117622656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65907328"/>
+        <c:axId val="117621120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65921408"/>
+        <c:crossAx val="117622656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65921408"/>
+        <c:axId val="117622656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8601,14 +8595,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65907328"/>
+        <c:crossAx val="117621120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -10430,7 +10423,7 @@
   <dimension ref="A1:Q92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10494,7 +10487,7 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-2.0000000000000002E-5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -10516,7 +10509,7 @@
       </c>
       <c r="I2">
         <f>(0+G2)*$B$2</f>
-        <v>0</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="J2">
         <f>G2*$B$1</f>
@@ -10524,11 +10517,11 @@
       </c>
       <c r="K2">
         <f>$B$2*H2</f>
-        <v>0</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="L2">
         <f>$B$3*(G2-0)</f>
-        <v>0</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="M2">
         <f>$B$6*$B$4</f>
@@ -10536,15 +10529,15 @@
       </c>
       <c r="N2">
         <f>SUM(J2:M2)</f>
-        <v>-0.63</v>
+        <v>-0.69299999999999995</v>
       </c>
       <c r="O2">
         <f>IF(N2&gt;1,1,IF(N2&lt;-1,-1,N2))</f>
-        <v>-0.63</v>
+        <v>-0.69299999999999995</v>
       </c>
       <c r="P2">
-        <f>(-1/$B$4)+(1+O2)/$B$4</f>
-        <v>3150</v>
+        <f t="shared" ref="P2:P33" si="0">(-1/$B$4)+(1+O2)/$B$4</f>
+        <v>3465</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -10552,58 +10545,58 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-9.9999999999999995E-7</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">D3*$B$5</f>
+        <f t="shared" ref="E3:E66" si="1">D3*$B$5</f>
         <v>0.1</v>
       </c>
       <c r="F3">
         <f>P2</f>
-        <v>3150</v>
+        <v>3465</v>
       </c>
       <c r="G3">
         <f>$B$6-F3</f>
-        <v>-150</v>
+        <v>-465</v>
       </c>
       <c r="H3">
         <f>IF(I3&lt;1,IF(I3&gt;-1,H2+G3,-1/$B$2),1/$B$2)</f>
-        <v>2850</v>
+        <v>2535</v>
       </c>
       <c r="I3">
         <f>(H2+G3)*$B$2</f>
-        <v>0</v>
+        <v>-5.0700000000000002E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="1">G3*$B$1</f>
-        <v>1.5E-3</v>
+        <f t="shared" ref="J3:J66" si="2">G3*$B$1</f>
+        <v>4.6500000000000005E-3</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="2">$B$2*H3</f>
-        <v>0</v>
+        <f t="shared" ref="K3:K66" si="3">$B$2*H3</f>
+        <v>-5.0700000000000002E-2</v>
       </c>
       <c r="L3">
         <f>$B$3*(G3-G2)</f>
-        <v>0</v>
+        <v>3.4649999999999998E-3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="3">$B$6*$B$4</f>
+        <f t="shared" ref="M3:M66" si="4">$B$6*$B$4</f>
         <v>-0.6</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="4">SUM(J3:M3)</f>
-        <v>-0.59850000000000003</v>
+        <f t="shared" ref="N3:N66" si="5">SUM(J3:M3)</f>
+        <v>-0.64258499999999996</v>
       </c>
       <c r="O3">
         <f>IF(N3&gt;1,1,IF(N3&lt;-1,-1,N3))</f>
-        <v>-0.59850000000000003</v>
+        <v>-0.64258499999999996</v>
       </c>
       <c r="P3">
-        <f>(-1/$B$4)+(1+O3)/$B$4</f>
-        <v>2992.5</v>
+        <f t="shared" si="0"/>
+        <v>3212.9250000000002</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -10618,52 +10611,52 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F67" si="6">P3</f>
+        <v>3212.9250000000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G67" si="7">$B$6-F4</f>
+        <v>-212.92500000000018</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="8">IF(I4&lt;1,IF(I4&gt;-1,H3+G4,-1/$B$2),1/$B$2)</f>
+        <v>2322.0749999999998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="9">(H3+G4)*$B$2</f>
+        <v>-4.6441500000000004E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>2.1292500000000018E-3</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>-4.6441500000000004E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L67" si="10">$B$3*(G4-G3)</f>
+        <v>-2.5207499999999983E-4</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>-0.64456432499999994</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O67" si="11">IF(N4&gt;1,1,IF(N4&lt;-1,-1,N4))</f>
+        <v>-0.64456432499999994</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="0"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F67" si="5">P3</f>
-        <v>2992.5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G67" si="6">$B$6-F4</f>
-        <v>7.5</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H67" si="7">IF(I4&lt;1,IF(I4&gt;-1,H3+G4,-1/$B$2),1/$B$2)</f>
-        <v>2857.5</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I67" si="8">(H3+G4)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>-7.5000000000000007E-5</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L67" si="9">$B$3*(G4-G3)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="4"/>
-        <v>-0.60007500000000003</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O67" si="10">IF(N4&gt;1,1,IF(N4&lt;-1,-1,N4))</f>
-        <v>-0.60007500000000003</v>
-      </c>
-      <c r="P4">
-        <f>(-1/$B$4)+(1+O4)/$B$4</f>
-        <v>3000.375</v>
+        <v>3222.8216249999996</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -10677,52 +10670,52 @@
         <v>4</v>
       </c>
       <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="6"/>
+        <v>3222.8216249999996</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="7"/>
+        <v>-222.82162499999959</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="8"/>
+        <v>2099.2533750000002</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="9"/>
+        <v>-4.1985067500000008E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="2"/>
+        <v>2.2282162499999958E-3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>-4.1985067500000008E-2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="10"/>
+        <v>9.8966249999994031E-6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>-0.63974695462499998</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="11"/>
+        <v>-0.63974695462499998</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="5"/>
-        <v>3000.375</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="6"/>
-        <v>-0.375</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="7"/>
-        <v>2857.125</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>3.7500000000000005E-6</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="4"/>
-        <v>-0.59999625000000001</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="10"/>
-        <v>-0.59999625000000001</v>
-      </c>
-      <c r="P5">
-        <f>(-1/$B$4)+(1+O5)/$B$4</f>
-        <v>2999.9812499999998</v>
+        <v>3198.7347731250002</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -10736,52 +10729,52 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="6"/>
+        <v>3198.7347731250002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="7"/>
+        <v>-198.73477312500017</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="8"/>
+        <v>1900.5186018750001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="9"/>
+        <v>-3.8010372037500004E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>1.9873477312500019E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>-3.8010372037500004E-2</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>-2.4086851874999411E-5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>-0.63604711115812496</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="11"/>
+        <v>-0.63604711115812496</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="5"/>
-        <v>2999.9812499999998</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="6"/>
-        <v>1.8750000000181899E-2</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="7"/>
-        <v>2857.1437500000002</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>-1.8750000000181901E-7</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="4"/>
-        <v>-0.60000018749999995</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="10"/>
-        <v>-0.60000018749999995</v>
-      </c>
-      <c r="P6">
-        <f>(-1/$B$4)+(1+O6)/$B$4</f>
-        <v>3000.0009375</v>
+        <v>3180.2355557906249</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -10789,52 +10782,52 @@
         <v>6</v>
       </c>
       <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>3180.2355557906249</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="7"/>
+        <v>-180.23555579062486</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="8"/>
+        <v>1720.2830460843752</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="9"/>
+        <v>-3.4405660921687509E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>1.8023555579062488E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>-3.4405660921687509E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="10"/>
+        <v>-1.8499217334375316E-5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>-0.63262180458111561</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>-0.63262180458111561</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="5"/>
-        <v>3000.0009375</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="6"/>
-        <v>-9.3749999996362021E-4</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="7"/>
-        <v>2857.1428125000002</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>9.3749999996362022E-9</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="4"/>
-        <v>-0.59999999062499998</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="10"/>
-        <v>-0.59999999062499998</v>
-      </c>
-      <c r="P7">
-        <f>(-1/$B$4)+(1+O7)/$B$4</f>
-        <v>2999.999953125</v>
+        <v>3163.1090229055781</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -10842,52 +10835,52 @@
         <v>7</v>
       </c>
       <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="6"/>
+        <v>3163.1090229055781</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="7"/>
+        <v>-163.10902290557806</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="8"/>
+        <v>1557.1740231787971</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="9"/>
+        <v>-3.1143480463575946E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>1.6310902290557808E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>-3.1143480463575946E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>-1.71265328850468E-5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>-0.62952951676740521</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="11"/>
+        <v>-0.62952951676740521</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="5"/>
-        <v>2999.999953125</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="6"/>
-        <v>4.6874999952706276E-5</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="7"/>
-        <v>2857.1428593750002</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>-4.6874999952706275E-10</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="4"/>
-        <v>-0.60000000046875002</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="10"/>
-        <v>-0.60000000046875002</v>
-      </c>
-      <c r="P8">
-        <f>(-1/$B$4)+(1+O8)/$B$4</f>
-        <v>3000.0000023437501</v>
+        <v>3147.6475838370261</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -10898,52 +10891,52 @@
         <v>8</v>
       </c>
       <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="6"/>
+        <v>3147.6475838370261</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>-147.6475838370261</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>1409.526439341771</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="9"/>
+        <v>-2.8190528786835423E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1.4764758383702611E-3</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>-2.8190528786835423E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="10"/>
+        <v>-1.5461439068551953E-5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>-0.62672951438753366</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="11"/>
+        <v>-0.62672951438753366</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="5"/>
-        <v>3000.0000023437501</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="6"/>
-        <v>-2.3437501113221515E-6</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="7"/>
-        <v>2857.1428570312501</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>2.3437501113221516E-11</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="4"/>
-        <v>-0.5999999999765625</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="10"/>
-        <v>-0.5999999999765625</v>
-      </c>
-      <c r="P9">
-        <f>(-1/$B$4)+(1+O9)/$B$4</f>
-        <v>2999.9999998828125</v>
+        <v>3133.6475719376685</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -10957,52 +10950,52 @@
         <v>9</v>
       </c>
       <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>3133.6475719376685</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>-133.64757193766854</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>1275.8788674041025</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>-2.5517577348082052E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>1.3364757193766856E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>-2.5517577348082052E-2</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="10"/>
+        <v>-1.4000011899357559E-5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>-0.62419510164060465</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="11"/>
+        <v>-0.62419510164060465</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="5"/>
-        <v>2999.9999998828125</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="6"/>
-        <v>1.1718748282874003E-7</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="7"/>
-        <v>2857.1428571484375</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>-1.1718748282874004E-12</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="4"/>
-        <v>-0.60000000000117182</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="10"/>
-        <v>-0.60000000000117182</v>
-      </c>
-      <c r="P10">
-        <f>(-1/$B$4)+(1+O10)/$B$4</f>
-        <v>3000.000000005859</v>
+        <v>3120.9755082030233</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -11010,52 +11003,52 @@
         <v>10</v>
       </c>
       <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>3120.9755082030233</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="7"/>
+        <v>-120.97550820302331</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
+        <v>1154.9033592010792</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="9"/>
+        <v>-2.3098067184021586E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1.2097550820302332E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>-2.3098067184021586E-2</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>-1.2672063734645235E-5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>-0.62190098416572592</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="11"/>
+        <v>-0.62190098416572592</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="5"/>
-        <v>3000.000000005859</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="6"/>
-        <v>-5.8589648688212037E-9</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="7"/>
-        <v>2857.1428571425786</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>5.8589648688212042E-14</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="4"/>
-        <v>-0.59999999999994136</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="10"/>
-        <v>-0.59999999999994136</v>
-      </c>
-      <c r="P11">
-        <f>(-1/$B$4)+(1+O11)/$B$4</f>
-        <v>2999.9999999997071</v>
+        <v>3109.50492082863</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -11063,52 +11056,52 @@
         <v>11</v>
       </c>
       <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="6"/>
+        <v>3109.50492082863</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="7"/>
+        <v>-109.50492082863002</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
+        <v>1045.3984383724492</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="9"/>
+        <v>-2.0907968767448985E-2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1.0950492082863004E-3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>-2.0907968767448985E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>-1.1470587374393288E-5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>-0.61982439014653701</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="11"/>
+        <v>-0.61982439014653701</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>2999.9999999997071</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="6"/>
-        <v>2.9285729397088289E-10</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428714</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>-2.9285729397088291E-15</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>-0.60000000000000286</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="10"/>
-        <v>-0.60000000000000286</v>
-      </c>
-      <c r="P12">
-        <f>(-1/$B$4)+(1+O12)/$B$4</f>
-        <v>3000.0000000000146</v>
+        <v>3099.121950732685</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -11116,52 +11109,52 @@
         <v>12</v>
       </c>
       <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="6"/>
+        <v>3099.121950732685</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="7"/>
+        <v>-99.121950732685036</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>946.27648763976413</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="9"/>
+        <v>-1.8925529752795284E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>9.9121950732685045E-4</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>-1.8925529752795284E-2</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>-1.0382970095944984E-5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>-0.6</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>-0.61794469321556433</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="11"/>
+        <v>-0.61794469321556433</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>3000.0000000000146</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="6"/>
-        <v>-1.4551915228366852E-11</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>1.4551915228366853E-16</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="4"/>
-        <v>-0.59999999999999987</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="10"/>
-        <v>-0.59999999999999987</v>
-      </c>
-      <c r="P13">
-        <f>(-1/$B$4)+(1+O13)/$B$4</f>
-        <v>2999.9999999999991</v>
+        <v>3089.7234660778217</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -11169,52 +11162,52 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
-        <v>2999.9999999999991</v>
+        <f t="shared" si="6"/>
+        <v>3089.7234660778217</v>
       </c>
       <c r="G14">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-89.72346607782174</v>
       </c>
       <c r="H14">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>856.55302156194239</v>
       </c>
       <c r="I14">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.713106043123885E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.9723466077821752E-4</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.713106043123885E-2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-9.3984846548632955E-6</v>
       </c>
       <c r="M14">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N14">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>-0.61624322425511546</v>
+      </c>
       <c r="O14">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.61624322425511546</v>
       </c>
       <c r="P14">
-        <f>(-1/$B$4)+(1+O14)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3081.2161212755773</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -11222,52 +11215,52 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3081.2161212755773</v>
       </c>
       <c r="G15">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-81.216121275577279</v>
       </c>
       <c r="H15">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>775.33690028636511</v>
       </c>
       <c r="I15">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.5506738005727303E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.121612127557729E-4</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.5506738005727303E-2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-8.50734480224446E-6</v>
       </c>
       <c r="M15">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N15">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>-0.61470308413777375</v>
+      </c>
       <c r="O15">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.61470308413777375</v>
       </c>
       <c r="P15">
-        <f>(-1/$B$4)+(1+O15)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3073.5154206888687</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -11275,52 +11268,52 @@
         <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3073.5154206888687</v>
       </c>
       <c r="G16">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-73.515420688868744</v>
       </c>
       <c r="H16">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>701.82147959749636</v>
       </c>
       <c r="I16">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.4036429591949928E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7.3515420688868751E-4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.4036429591949928E-2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-7.7007005867085355E-6</v>
       </c>
       <c r="M16">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N16">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>-0.61330897608564794</v>
+      </c>
       <c r="O16">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.61330897608564794</v>
       </c>
       <c r="P16">
-        <f>(-1/$B$4)+(1+O16)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3066.5448804282396</v>
       </c>
     </row>
     <row r="17" spans="4:16">
@@ -11328,52 +11321,52 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3066.5448804282396</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-66.544880428239594</v>
       </c>
       <c r="H17">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>635.27659916925677</v>
       </c>
       <c r="I17">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.2705531983385136E-2</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.6544880428239602E-4</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.2705531983385136E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-6.9705402606291493E-6</v>
       </c>
       <c r="M17">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N17">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>-0.6120470537193633</v>
+      </c>
       <c r="O17">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6120470537193633</v>
       </c>
       <c r="P17">
-        <f>(-1/$B$4)+(1+O17)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3060.2352685968167</v>
       </c>
     </row>
     <row r="18" spans="4:16">
@@ -11381,52 +11374,52 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3060.2352685968167</v>
       </c>
       <c r="G18">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-60.235268596816695</v>
       </c>
       <c r="H18">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>575.04133057244007</v>
       </c>
       <c r="I18">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.1500826611448802E-2</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.0235268596816704E-4</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.1500826611448802E-2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-6.3096118314228989E-6</v>
       </c>
       <c r="M18">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N18">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>-0.61090478353731203</v>
+      </c>
       <c r="O18">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.61090478353731203</v>
       </c>
       <c r="P18">
-        <f>(-1/$B$4)+(1+O18)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3054.5239176865603</v>
       </c>
     </row>
     <row r="19" spans="4:16">
@@ -11434,52 +11427,52 @@
         <v>18</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3054.5239176865603</v>
       </c>
       <c r="G19">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-54.523917686560253</v>
       </c>
       <c r="H19">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>520.51741288587982</v>
       </c>
       <c r="I19">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.0410348257717597E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.4523917686560256E-4</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.0410348257717597E-2</v>
       </c>
       <c r="L19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-5.7113509102564419E-6</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N19">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>-0.60987082043176222</v>
+      </c>
       <c r="O19">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60987082043176222</v>
       </c>
       <c r="P19">
-        <f>(-1/$B$4)+(1+O19)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3049.3541021588112</v>
       </c>
     </row>
     <row r="20" spans="4:16">
@@ -11487,52 +11480,52 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3049.3541021588112</v>
       </c>
       <c r="G20">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-49.354102158811202</v>
       </c>
       <c r="H20">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>471.16331072706862</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-9.4232662145413738E-3</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.9354102158811206E-4</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-9.4232662145413738E-3</v>
       </c>
       <c r="L20">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-5.1698155277490509E-6</v>
       </c>
       <c r="M20">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N20">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>-0.60893489500848097</v>
+      </c>
       <c r="O20">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60893489500848097</v>
       </c>
       <c r="P20">
-        <f>(-1/$B$4)+(1+O20)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3044.674475042405</v>
       </c>
     </row>
     <row r="21" spans="4:16">
@@ -11540,52 +11533,52 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3044.674475042405</v>
       </c>
       <c r="G21">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-44.674475042404993</v>
       </c>
       <c r="H21">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>426.48883568466363</v>
       </c>
       <c r="I21">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-8.5297767136932739E-3</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.4674475042404994E-4</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-8.5297767136932739E-3</v>
       </c>
       <c r="L21">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-4.6796271164062088E-6</v>
       </c>
       <c r="M21">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N21">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>-0.60808771159038566</v>
+      </c>
       <c r="O21">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60808771159038566</v>
       </c>
       <c r="P21">
-        <f>(-1/$B$4)+(1+O21)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3040.4385579519285</v>
       </c>
     </row>
     <row r="22" spans="4:16">
@@ -11593,52 +11586,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.05</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3040.4385579519285</v>
       </c>
       <c r="G22">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-40.438557951928487</v>
       </c>
       <c r="H22">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>386.05027773273514</v>
       </c>
       <c r="I22">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-7.7210055546547036E-3</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.0438557951928493E-4</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-7.7210055546547036E-3</v>
       </c>
       <c r="L22">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-4.2359170904765047E-6</v>
       </c>
       <c r="M22">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N22">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>-0.60732085589222584</v>
+      </c>
       <c r="O22">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60732085589222584</v>
       </c>
       <c r="P22">
-        <f>(-1/$B$4)+(1+O22)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3036.6042794611294</v>
       </c>
     </row>
     <row r="23" spans="4:16">
@@ -11646,52 +11639,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3036.6042794611294</v>
       </c>
       <c r="G23">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-36.604279461129408</v>
       </c>
       <c r="H23">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>349.44599827160573</v>
       </c>
       <c r="I23">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-6.988919965432115E-3</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.660427946112941E-4</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-6.988919965432115E-3</v>
       </c>
       <c r="L23">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-3.8342784907990786E-6</v>
       </c>
       <c r="M23">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N23">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>-0.60662671144931157</v>
+      </c>
       <c r="O23">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60662671144931157</v>
       </c>
       <c r="P23">
-        <f>(-1/$B$4)+(1+O23)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3033.1335572465578</v>
       </c>
     </row>
     <row r="24" spans="4:16">
@@ -11699,52 +11692,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1500000000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3033.1335572465578</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-33.133557246557757</v>
       </c>
       <c r="H24">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>316.31244102504797</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-6.3262488205009602E-3</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.3133557246557758E-4</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-6.3262488205009602E-3</v>
       </c>
       <c r="L24">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-3.4707222145716511E-6</v>
       </c>
       <c r="M24">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N24">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>-0.60599838397024997</v>
+      </c>
       <c r="O24">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60599838397024997</v>
       </c>
       <c r="P24">
-        <f>(-1/$B$4)+(1+O24)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3029.9919198512498</v>
       </c>
     </row>
     <row r="25" spans="4:16">
@@ -11752,52 +11745,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3029.9919198512498</v>
       </c>
       <c r="G25">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-29.991919851249804</v>
       </c>
       <c r="H25">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>286.32052117379817</v>
       </c>
       <c r="I25">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-5.7264104234759639E-3</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.9991919851249805E-4</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-5.7264104234759639E-3</v>
       </c>
       <c r="L25">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-3.1416373953079527E-6</v>
       </c>
       <c r="M25">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N25">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>-0.60542963286235874</v>
+      </c>
       <c r="O25">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60542963286235874</v>
       </c>
       <c r="P25">
-        <f>(-1/$B$4)+(1+O25)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3027.1481643117941</v>
       </c>
     </row>
     <row r="26" spans="4:16">
@@ -11805,52 +11798,52 @@
         <v>25</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3027.1481643117941</v>
       </c>
       <c r="G26">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-27.148164311794062</v>
       </c>
       <c r="H26">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>259.17235686200411</v>
       </c>
       <c r="I26">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-5.1834471372400829E-3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.7148164311794064E-4</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-5.1834471372400829E-3</v>
       </c>
       <c r="L26">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.8437555394557418E-6</v>
       </c>
       <c r="M26">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N26">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>-0.60491480924966157</v>
+      </c>
       <c r="O26">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60491480924966157</v>
       </c>
       <c r="P26">
-        <f>(-1/$B$4)+(1+O26)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3024.5740462483082</v>
       </c>
     </row>
     <row r="27" spans="4:16">
@@ -11858,52 +11851,52 @@
         <v>26</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3024.5740462483082</v>
       </c>
       <c r="G27">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-24.57404624830815</v>
       </c>
       <c r="H27">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>234.59831061369596</v>
       </c>
       <c r="I27">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-4.6919662122739195E-3</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.457404624830815E-4</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-4.6919662122739195E-3</v>
       </c>
       <c r="L27">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.5741180634859119E-6</v>
       </c>
       <c r="M27">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N27">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>-0.60444879986785427</v>
+      </c>
       <c r="O27">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60444879986785427</v>
       </c>
       <c r="P27">
-        <f>(-1/$B$4)+(1+O27)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3022.2439993392713</v>
       </c>
     </row>
     <row r="28" spans="4:16">
@@ -11911,52 +11904,52 @@
         <v>27</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3022.2439993392713</v>
       </c>
       <c r="G28">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-22.24399933927134</v>
       </c>
       <c r="H28">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>212.35431127442462</v>
       </c>
       <c r="I28">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-4.2470862254884931E-3</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.2243999339271341E-4</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-4.2470862254884931E-3</v>
       </c>
       <c r="L28">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.3300469090368095E-6</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N28">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>-0.60402697627900481</v>
+      </c>
       <c r="O28">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60402697627900481</v>
       </c>
       <c r="P28">
-        <f>(-1/$B$4)+(1+O28)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3020.1348813950244</v>
       </c>
     </row>
     <row r="29" spans="4:16">
@@ -11964,52 +11957,52 @@
         <v>28</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3020.1348813950244</v>
       </c>
       <c r="G29">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-20.134881395024422</v>
       </c>
       <c r="H29">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>192.2194298794002</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-3.8443885975880041E-3</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.0134881395024424E-4</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.8443885975880041E-3</v>
       </c>
       <c r="L29">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.1091179442469183E-6</v>
       </c>
       <c r="M29">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N29">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>-0.60364514890158194</v>
+      </c>
       <c r="O29">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60364514890158194</v>
       </c>
       <c r="P29">
-        <f>(-1/$B$4)+(1+O29)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3018.2257445079099</v>
       </c>
     </row>
     <row r="30" spans="4:16">
@@ -12017,52 +12010,52 @@
         <v>29</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4500000000000002</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3018.2257445079099</v>
       </c>
       <c r="G30">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-18.225744507909894</v>
       </c>
       <c r="H30">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>173.9936853714903</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-3.4798737074298062E-3</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.8225744507909897E-4</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.4798737074298062E-3</v>
       </c>
       <c r="L30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.9091368871145279E-6</v>
       </c>
       <c r="M30">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N30">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>-0.60329952539923781</v>
+      </c>
       <c r="O30">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60329952539923781</v>
       </c>
       <c r="P30">
-        <f>(-1/$B$4)+(1+O30)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3016.497626996189</v>
       </c>
     </row>
     <row r="31" spans="4:16">
@@ -12070,52 +12063,52 @@
         <v>30</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3016.497626996189</v>
       </c>
       <c r="G31">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-16.497626996188956</v>
       </c>
       <c r="H31">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>157.49605837530135</v>
       </c>
       <c r="I31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-3.1499211675060272E-3</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.6497626996188957E-4</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.1499211675060272E-3</v>
       </c>
       <c r="L31">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.7281175117209387E-6</v>
       </c>
       <c r="M31">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N31">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>-0.60298667301505582</v>
+      </c>
       <c r="O31">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60298667301505582</v>
       </c>
       <c r="P31">
-        <f>(-1/$B$4)+(1+O31)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3014.9333650752792</v>
       </c>
     </row>
     <row r="32" spans="4:16">
@@ -12123,52 +12116,52 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.55</v>
       </c>
       <c r="F32">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3014.9333650752792</v>
       </c>
       <c r="G32">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-14.933365075279198</v>
       </c>
       <c r="H32">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>142.56269330002215</v>
       </c>
       <c r="I32">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.851253866000443E-3</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.4933365075279199E-4</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.851253866000443E-3</v>
       </c>
       <c r="L32">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.5642619209097574E-6</v>
       </c>
       <c r="M32">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N32">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>-0.60270348447716859</v>
+      </c>
       <c r="O32">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60270348447716859</v>
       </c>
       <c r="P32">
-        <f>(-1/$B$4)+(1+O32)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3013.517422385843</v>
       </c>
     </row>
     <row r="33" spans="4:16">
@@ -12176,52 +12169,52 @@
         <v>32</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="F33">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3013.517422385843</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-13.51742238584302</v>
       </c>
       <c r="H33">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>129.04527091417913</v>
       </c>
       <c r="I33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.5809054182835828E-3</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.351742238584302E-4</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.5809054182835828E-3</v>
       </c>
       <c r="L33">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.4159426894361786E-6</v>
       </c>
       <c r="M33">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N33">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>-0.60244714713711456</v>
+      </c>
       <c r="O33">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60244714713711456</v>
       </c>
       <c r="P33">
-        <f>(-1/$B$4)+(1+O33)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>3012.2357356855728</v>
       </c>
     </row>
     <row r="34" spans="4:16">
@@ -12229,52 +12222,52 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6500000000000001</v>
       </c>
       <c r="F34">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3012.2357356855728</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-12.235735685572763</v>
       </c>
       <c r="H34">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>116.80953522860636</v>
       </c>
       <c r="I34">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.3361907045721273E-3</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.2235735685572763E-4</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.3361907045721273E-3</v>
       </c>
       <c r="L34">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.2816867002702564E-6</v>
       </c>
       <c r="M34">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N34">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>-0.6022151150344166</v>
+      </c>
       <c r="O34">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6022151150344166</v>
       </c>
       <c r="P34">
-        <f>(-1/$B$4)+(1+O34)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" ref="P34:P65" si="12">(-1/$B$4)+(1+O34)/$B$4</f>
+        <v>3011.0755751720831</v>
       </c>
     </row>
     <row r="35" spans="4:16">
@@ -12282,52 +12275,52 @@
         <v>34</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3011.0755751720831</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-11.075575172083063</v>
       </c>
       <c r="H35">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>105.7339600565233</v>
       </c>
       <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.1146792011304664E-3</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.1075575172083064E-4</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.1146792011304664E-3</v>
       </c>
       <c r="L35">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.1601605134897E-6</v>
       </c>
       <c r="M35">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N35">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>-0.60200508360992311</v>
+      </c>
       <c r="O35">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60200508360992311</v>
       </c>
       <c r="P35">
-        <f>(-1/$B$4)+(1+O35)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3010.0254180496158</v>
       </c>
     </row>
     <row r="36" spans="4:16">
@@ -12335,52 +12328,52 @@
         <v>35</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.75</v>
       </c>
       <c r="F36">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3010.0254180496158</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-10.025418049615837</v>
       </c>
       <c r="H36">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>95.708542006907464</v>
       </c>
       <c r="I36">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.9141708401381493E-3</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0025418049615838E-4</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.9141708401381493E-3</v>
       </c>
       <c r="L36">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.0501571224672261E-6</v>
       </c>
       <c r="M36">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N36">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N36">
+        <f t="shared" si="5"/>
+        <v>-0.60181496681676439</v>
+      </c>
       <c r="O36">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60181496681676439</v>
       </c>
       <c r="P36">
-        <f>(-1/$B$4)+(1+O36)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3009.0748340838218</v>
       </c>
     </row>
     <row r="37" spans="4:16">
@@ -12388,52 +12381,52 @@
         <v>36</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
       <c r="F37">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3009.0748340838218</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-9.07483408382177</v>
       </c>
       <c r="H37">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>86.633707923085694</v>
       </c>
       <c r="I37">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.732674158461714E-3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.0748340838217709E-5</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.732674158461714E-3</v>
       </c>
       <c r="L37">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-9.5058396579406683E-7</v>
       </c>
       <c r="M37">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N37">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N37">
+        <f t="shared" si="5"/>
+        <v>-0.60164287640158931</v>
+      </c>
       <c r="O37">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60164287640158931</v>
       </c>
       <c r="P37">
-        <f>(-1/$B$4)+(1+O37)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3008.2143820079464</v>
       </c>
     </row>
     <row r="38" spans="4:16">
@@ -12441,52 +12434,52 @@
         <v>37</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.85</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3008.2143820079464</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-8.2143820079463694</v>
       </c>
       <c r="H38">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>78.419325915139325</v>
       </c>
       <c r="I38">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.5683865183027867E-3</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.2143820079463704E-5</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.5683865183027867E-3</v>
       </c>
       <c r="L38">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-8.6045207587540057E-7</v>
       </c>
       <c r="M38">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N38">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N38">
+        <f t="shared" si="5"/>
+        <v>-0.60148710315029918</v>
+      </c>
       <c r="O38">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60148710315029918</v>
       </c>
       <c r="P38">
-        <f>(-1/$B$4)+(1+O38)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3007.435515751496</v>
       </c>
     </row>
     <row r="39" spans="4:16">
@@ -12494,52 +12487,52 @@
         <v>38</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9000000000000001</v>
       </c>
       <c r="F39">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3007.435515751496</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-7.435515751496041</v>
       </c>
       <c r="H39">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>70.983810163643284</v>
       </c>
       <c r="I39">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.4196762032728657E-3</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7.4355157514960414E-5</v>
       </c>
       <c r="K39">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.4196762032728657E-3</v>
       </c>
       <c r="L39">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-7.7886625645032831E-7</v>
       </c>
       <c r="M39">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N39">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N39">
+        <f t="shared" si="5"/>
+        <v>-0.60134609991201438</v>
+      </c>
       <c r="O39">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60134609991201438</v>
       </c>
       <c r="P39">
-        <f>(-1/$B$4)+(1+O39)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3006.7304995600721</v>
       </c>
     </row>
     <row r="40" spans="4:16">
@@ -12547,52 +12540,52 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9500000000000002</v>
       </c>
       <c r="F40">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3006.7304995600721</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-6.7304995600720758</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>64.253310603571208</v>
       </c>
       <c r="I40">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.2850662120714243E-3</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.7304995600720767E-5</v>
       </c>
       <c r="K40">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.2850662120714243E-3</v>
       </c>
       <c r="L40">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-7.0501619142396519E-7</v>
       </c>
       <c r="M40">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N40">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N40">
+        <f t="shared" si="5"/>
+        <v>-0.60121846623266206</v>
+      </c>
       <c r="O40">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60121846623266206</v>
       </c>
       <c r="P40">
-        <f>(-1/$B$4)+(1+O40)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3006.0923311633105</v>
       </c>
     </row>
     <row r="41" spans="4:16">
@@ -12600,52 +12593,52 @@
         <v>40</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F41">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3006.0923311633105</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-6.0923311633105186</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>58.160979440260689</v>
       </c>
       <c r="I41">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.1632195888052138E-3</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.0923311633105191E-5</v>
       </c>
       <c r="K41">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.1632195888052138E-3</v>
       </c>
       <c r="L41">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-6.3816839676155717E-7</v>
       </c>
       <c r="M41">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N41">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N41">
+        <f t="shared" si="5"/>
+        <v>-0.60110293444556884</v>
+      </c>
       <c r="O41">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60110293444556884</v>
       </c>
       <c r="P41">
-        <f>(-1/$B$4)+(1+O41)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3005.5146722278441</v>
       </c>
     </row>
     <row r="42" spans="4:16">
@@ -12653,52 +12646,52 @@
         <v>41</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0500000000000003</v>
       </c>
       <c r="F42">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3005.5146722278441</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-5.5146722278441302</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>52.646307212416559</v>
       </c>
       <c r="I42">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.0529261442483312E-3</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.5146722278441304E-5</v>
       </c>
       <c r="K42">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.0529261442483312E-3</v>
       </c>
       <c r="L42">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-5.7765893546638831E-7</v>
       </c>
       <c r="M42">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N42">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N42">
+        <f t="shared" si="5"/>
+        <v>-0.60099835708090532</v>
+      </c>
       <c r="O42">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60099835708090532</v>
       </c>
       <c r="P42">
-        <f>(-1/$B$4)+(1+O42)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3004.991785404527</v>
       </c>
     </row>
     <row r="43" spans="4:16">
@@ -12706,52 +12699,52 @@
         <v>42</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1</v>
       </c>
       <c r="F43">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3004.991785404527</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-4.991785404527036</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>47.654521807889523</v>
       </c>
       <c r="I43">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-9.5309043615779052E-4</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.9917854045270366E-5</v>
       </c>
       <c r="K43">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-9.5309043615779052E-4</v>
       </c>
       <c r="L43">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-5.2288682331709426E-7</v>
       </c>
       <c r="M43">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N43">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N43">
+        <f t="shared" si="5"/>
+        <v>-0.60090369546893585</v>
+      </c>
       <c r="O43">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60090369546893585</v>
       </c>
       <c r="P43">
-        <f>(-1/$B$4)+(1+O43)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3004.518477344679</v>
       </c>
     </row>
     <row r="44" spans="4:16">
@@ -12759,52 +12752,52 @@
         <v>43</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.15</v>
       </c>
       <c r="F44">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3004.518477344679</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-4.5184773446790132</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>43.13604446321051</v>
       </c>
       <c r="I44">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-8.6272088926421032E-4</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.5184773446790135E-5</v>
       </c>
       <c r="K44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-8.6272088926421032E-4</v>
       </c>
       <c r="L44">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-4.7330805984802281E-7</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N44">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N44">
+        <f t="shared" si="5"/>
+        <v>-0.6008180094238772</v>
+      </c>
       <c r="O44">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6008180094238772</v>
       </c>
       <c r="P44">
-        <f>(-1/$B$4)+(1+O44)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3004.0900471193863</v>
       </c>
     </row>
     <row r="45" spans="4:16">
@@ -12812,52 +12805,52 @@
         <v>44</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3004.0900471193863</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-4.0900471193863268</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>39.045997343824183</v>
       </c>
       <c r="I45">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-7.8091994687648372E-4</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.090047119386327E-5</v>
       </c>
       <c r="K45">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-7.8091994687648372E-4</v>
       </c>
       <c r="L45">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-4.2843022529268636E-7</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N45">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N45">
+        <f t="shared" si="5"/>
+        <v>-0.60074044790590786</v>
+      </c>
       <c r="O45">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60074044790590786</v>
       </c>
       <c r="P45">
-        <f>(-1/$B$4)+(1+O45)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3003.7022395295394</v>
       </c>
     </row>
     <row r="46" spans="4:16">
@@ -12865,52 +12858,52 @@
         <v>45</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.25</v>
       </c>
       <c r="F46">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3003.7022395295394</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-3.7022395295393835</v>
       </c>
       <c r="H46">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>35.3437578142848</v>
       </c>
       <c r="I46">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-7.0687515628569601E-4</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.7022395295393836E-5</v>
       </c>
       <c r="K46">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-7.0687515628569601E-4</v>
       </c>
       <c r="L46">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-3.8780758984694329E-7</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N46">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N46">
+        <f t="shared" si="5"/>
+        <v>-0.60067024056858009</v>
+      </c>
       <c r="O46">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60067024056858009</v>
       </c>
       <c r="P46">
-        <f>(-1/$B$4)+(1+O46)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3003.3512028429004</v>
       </c>
     </row>
     <row r="47" spans="4:16">
@@ -12918,52 +12911,52 @@
         <v>46</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3003.3512028429004</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-3.3512028429004204</v>
       </c>
       <c r="H47">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>31.992554971384379</v>
       </c>
       <c r="I47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-6.3985109942768764E-4</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.3512028429004207E-5</v>
       </c>
       <c r="K47">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-6.3985109942768764E-4</v>
       </c>
       <c r="L47">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-3.5103668663896311E-7</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N47">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N47">
+        <f t="shared" si="5"/>
+        <v>-0.6006066901076853</v>
+      </c>
       <c r="O47">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6006066901076853</v>
       </c>
       <c r="P47">
-        <f>(-1/$B$4)+(1+O47)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3003.0334505384267</v>
       </c>
     </row>
     <row r="48" spans="4:16">
@@ -12971,52 +12964,52 @@
         <v>47</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.35</v>
       </c>
       <c r="F48">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3003.0334505384267</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-3.0334505384266777</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>28.959104432957702</v>
       </c>
       <c r="I48">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-5.7918208865915405E-4</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.0334505384266779E-5</v>
       </c>
       <c r="K48">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-5.7918208865915405E-4</v>
       </c>
       <c r="L48">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-3.1775230447374266E-7</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N48">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N48">
+        <f t="shared" si="5"/>
+        <v>-0.60054916533557934</v>
+      </c>
       <c r="O48">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60054916533557934</v>
       </c>
       <c r="P48">
-        <f>(-1/$B$4)+(1+O48)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3002.7458266778967</v>
       </c>
     </row>
     <row r="49" spans="4:16">
@@ -13024,52 +13017,52 @@
         <v>48</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="F49">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3002.7458266778967</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-2.74582667789673</v>
       </c>
       <c r="H49">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>26.213277755060972</v>
       </c>
       <c r="I49">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-5.2426555510121944E-4</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.7458266778967302E-5</v>
       </c>
       <c r="K49">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-5.2426555510121944E-4</v>
       </c>
       <c r="L49">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.876238605299477E-7</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N49">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N49">
+        <f t="shared" si="5"/>
+        <v>-0.60049709491218273</v>
+      </c>
       <c r="O49">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60049709491218273</v>
       </c>
       <c r="P49">
-        <f>(-1/$B$4)+(1+O49)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3002.4854745609136</v>
       </c>
     </row>
     <row r="50" spans="4:16">
@@ -13077,52 +13070,52 @@
         <v>49</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4500000000000002</v>
       </c>
       <c r="F50">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3002.4854745609136</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-2.4854745609136444</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>23.727803194147327</v>
       </c>
       <c r="I50">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-4.7455606388294657E-4</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.4854745609136447E-5</v>
       </c>
       <c r="K50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-4.7455606388294657E-4</v>
       </c>
       <c r="L50">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.6035211698308557E-7</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N50">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N50">
+        <f t="shared" si="5"/>
+        <v>-0.60044996167039077</v>
+      </c>
       <c r="O50">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60044996167039077</v>
       </c>
       <c r="P50">
-        <f>(-1/$B$4)+(1+O50)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3002.249808351954</v>
       </c>
     </row>
     <row r="51" spans="4:16">
@@ -13130,52 +13123,52 @@
         <v>50</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F51">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3002.249808351954</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-2.249808351954016</v>
       </c>
       <c r="H51">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>21.477994842193311</v>
       </c>
       <c r="I51">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-4.2955989684386625E-4</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.2498083519540161E-5</v>
       </c>
       <c r="K51">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-4.2955989684386625E-4</v>
       </c>
       <c r="L51">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.356662089596284E-7</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N51">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N51">
+        <f t="shared" si="5"/>
+        <v>-0.60040729747953325</v>
+      </c>
       <c r="O51">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60040729747953325</v>
       </c>
       <c r="P51">
-        <f>(-1/$B$4)+(1+O51)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3002.0364873976664</v>
       </c>
     </row>
     <row r="52" spans="4:16">
@@ -13183,52 +13176,52 @@
         <v>51</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5500000000000003</v>
       </c>
       <c r="F52">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3002.0364873976664</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-2.0364873976664057</v>
       </c>
       <c r="H52">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>19.441507444526906</v>
       </c>
       <c r="I52">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-3.8883014889053814E-4</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.036487397666406E-5</v>
       </c>
       <c r="K52">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.8883014889053814E-4</v>
       </c>
       <c r="L52">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-2.1332095428761022E-7</v>
       </c>
       <c r="M52">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N52">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N52">
+        <f t="shared" si="5"/>
+        <v>-0.60036867859586818</v>
+      </c>
       <c r="O52">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60036867859586818</v>
       </c>
       <c r="P52">
-        <f>(-1/$B$4)+(1+O52)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3001.8433929793409</v>
       </c>
     </row>
     <row r="53" spans="4:16">
@@ -13236,52 +13229,52 @@
         <v>52</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6</v>
       </c>
       <c r="F53">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3001.8433929793409</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.8433929793409334</v>
       </c>
       <c r="H53">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>17.598114465185972</v>
       </c>
       <c r="I53">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-3.5196228930371948E-4</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.8433929793409337E-5</v>
       </c>
       <c r="K53">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.5196228930371948E-4</v>
       </c>
       <c r="L53">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.9309441832547236E-7</v>
       </c>
       <c r="M53">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N53">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N53">
+        <f t="shared" si="5"/>
+        <v>-0.6003337214539286</v>
+      </c>
       <c r="O53">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6003337214539286</v>
       </c>
       <c r="P53">
-        <f>(-1/$B$4)+(1+O53)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3001.668607269643</v>
       </c>
     </row>
     <row r="54" spans="4:16">
@@ -13289,52 +13282,52 @@
         <v>53</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6500000000000004</v>
       </c>
       <c r="F54">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3001.668607269643</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.6686072696429619</v>
       </c>
       <c r="H54">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>15.92950719554301</v>
       </c>
       <c r="I54">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-3.1859014391086022E-4</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.6686072696429621E-5</v>
       </c>
       <c r="K54">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-3.1859014391086022E-4</v>
       </c>
       <c r="L54">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.7478570969797147E-7</v>
       </c>
       <c r="M54">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N54">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N54">
+        <f t="shared" si="5"/>
+        <v>-0.6003020788569241</v>
+      </c>
       <c r="O54">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6003020788569241</v>
       </c>
       <c r="P54">
-        <f>(-1/$B$4)+(1+O54)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3001.5103942846208</v>
       </c>
     </row>
     <row r="55" spans="4:16">
@@ -13342,52 +13335,52 @@
         <v>54</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
       <c r="F55">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3001.5103942846208</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.5103942846208156</v>
       </c>
       <c r="H55">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>14.419112910922195</v>
       </c>
       <c r="I55">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.8838225821844392E-4</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.5103942846208157E-5</v>
       </c>
       <c r="K55">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.8838225821844392E-4</v>
       </c>
       <c r="L55">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.582129850221463E-7</v>
       </c>
       <c r="M55">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N55">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N55">
+        <f t="shared" si="5"/>
+        <v>-0.60027343652835718</v>
+      </c>
       <c r="O55">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60027343652835718</v>
       </c>
       <c r="P55">
-        <f>(-1/$B$4)+(1+O55)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3001.3671826417858</v>
       </c>
     </row>
     <row r="56" spans="4:16">
@@ -13395,52 +13388,52 @@
         <v>55</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
       <c r="F56">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3001.3671826417858</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.3671826417858028</v>
       </c>
       <c r="H56">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>13.051930269136392</v>
       </c>
       <c r="I56">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.6103860538272784E-4</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.3671826417858029E-5</v>
       </c>
       <c r="K56">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.6103860538272784E-4</v>
       </c>
       <c r="L56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.4321164283501275E-7</v>
       </c>
       <c r="M56">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N56">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N56">
+        <f t="shared" si="5"/>
+        <v>-0.60024750999060772</v>
+      </c>
       <c r="O56">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60024750999060772</v>
       </c>
       <c r="P56">
-        <f>(-1/$B$4)+(1+O56)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3001.237549953039</v>
       </c>
     </row>
     <row r="57" spans="4:16">
@@ -13448,52 +13441,52 @@
         <v>56</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="F57">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3001.237549953039</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.2375499530389789</v>
       </c>
       <c r="H57">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>11.814380316097413</v>
       </c>
       <c r="I57">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.3628760632194828E-4</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.2375499530389789E-5</v>
       </c>
       <c r="K57">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.3628760632194828E-4</v>
       </c>
       <c r="L57">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.2963268874682399E-7</v>
       </c>
       <c r="M57">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N57">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N57">
+        <f t="shared" si="5"/>
+        <v>-0.6002240417394803</v>
+      </c>
       <c r="O57">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6002240417394803</v>
       </c>
       <c r="P57">
-        <f>(-1/$B$4)+(1+O57)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3001.1202086974017</v>
       </c>
     </row>
     <row r="58" spans="4:16">
@@ -13501,52 +13494,52 @@
         <v>57</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.85</v>
       </c>
       <c r="F58">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3001.1202086974017</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.120208697401722</v>
       </c>
       <c r="H58">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>10.694171618695691</v>
       </c>
       <c r="I58">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-2.1388343237391382E-4</v>
       </c>
       <c r="J58">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.120208697401722E-5</v>
       </c>
       <c r="K58">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-2.1388343237391382E-4</v>
       </c>
       <c r="L58">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.1734125563725684E-7</v>
       </c>
       <c r="M58">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N58">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>-0.60020279868665549</v>
+      </c>
       <c r="O58">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60020279868665549</v>
       </c>
       <c r="P58">
-        <f>(-1/$B$4)+(1+O58)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3001.0139934332774</v>
       </c>
     </row>
     <row r="59" spans="4:16">
@@ -13554,52 +13547,52 @@
         <v>58</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9000000000000004</v>
       </c>
       <c r="F59">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3001.0139934332774</v>
       </c>
       <c r="G59">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-1.0139934332773919</v>
       </c>
       <c r="H59">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>9.6801781854182991</v>
       </c>
       <c r="I59">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.9360356370836599E-4</v>
       </c>
       <c r="J59">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0139934332773919E-5</v>
       </c>
       <c r="K59">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.9360356370836599E-4</v>
       </c>
       <c r="L59">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.0621526412433012E-7</v>
       </c>
       <c r="M59">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N59">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N59">
+        <f t="shared" si="5"/>
+        <v>-0.60018356984463972</v>
+      </c>
       <c r="O59">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60018356984463972</v>
       </c>
       <c r="P59">
-        <f>(-1/$B$4)+(1+O59)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3000.9178492231986</v>
       </c>
     </row>
     <row r="60" spans="4:16">
@@ -13607,52 +13600,52 @@
         <v>59</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
       <c r="F60">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.9178492231986</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.91784922319857287</v>
       </c>
       <c r="H60">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>8.7623289622197262</v>
       </c>
       <c r="I60">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.7524657924439455E-4</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>9.1784922319857293E-6</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.7524657924439455E-4</v>
       </c>
       <c r="L60">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-9.6144210078819008E-8</v>
       </c>
       <c r="M60">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N60">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N60">
+        <f t="shared" si="5"/>
+        <v>-0.60016616423122249</v>
+      </c>
       <c r="O60">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60016616423122249</v>
       </c>
       <c r="P60">
-        <f>(-1/$B$4)+(1+O60)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3000.8308211561125</v>
       </c>
     </row>
     <row r="61" spans="4:16">
@@ -13660,52 +13653,52 @@
         <v>60</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="F61">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.8308211561125</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.83082115611250629</v>
       </c>
       <c r="H61">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>7.9315078061072199</v>
       </c>
       <c r="I61">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.5863015612214442E-4</v>
       </c>
       <c r="J61">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.308211561125063E-6</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.5863015612214442E-4</v>
       </c>
       <c r="L61">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-8.7028067086066576E-8</v>
       </c>
       <c r="M61">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N61">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N61">
+        <f t="shared" si="5"/>
+        <v>-0.60015040897262806</v>
+      </c>
       <c r="O61">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60015040897262806</v>
       </c>
       <c r="P61">
-        <f>(-1/$B$4)+(1+O61)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3000.7520448631403</v>
       </c>
     </row>
     <row r="62" spans="4:16">
@@ -13713,52 +13706,52 @@
         <v>61</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0500000000000003</v>
       </c>
       <c r="F62">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.7520448631403</v>
       </c>
       <c r="G62">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.75204486314032692</v>
       </c>
       <c r="H62">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>7.179462942966893</v>
       </c>
       <c r="I62">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.4358925885933787E-4</v>
       </c>
       <c r="J62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7.5204486314032698E-6</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.4358925885933787E-4</v>
       </c>
       <c r="L62">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-7.8776292972179356E-8</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N62">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N62">
+        <f t="shared" si="5"/>
+        <v>-0.6001361475865209</v>
+      </c>
       <c r="O62">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.6001361475865209</v>
       </c>
       <c r="P62">
-        <f>(-1/$B$4)+(1+O62)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3000.6807379326046</v>
       </c>
     </row>
     <row r="63" spans="4:16">
@@ -13766,52 +13759,52 @@
         <v>62</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1</v>
       </c>
       <c r="F63">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.6807379326046</v>
       </c>
       <c r="G63">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.68073793260464299</v>
       </c>
       <c r="H63">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>6.49872501036225</v>
       </c>
       <c r="I63">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.2997450020724502E-4</v>
       </c>
       <c r="J63">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.8073793260464301E-6</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.2997450020724502E-4</v>
       </c>
       <c r="L63">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-7.1306930535683927E-8</v>
       </c>
       <c r="M63">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N63">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N63">
+        <f t="shared" si="5"/>
+        <v>-0.60012323842781168</v>
+      </c>
       <c r="O63">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60012323842781168</v>
       </c>
       <c r="P63">
-        <f>(-1/$B$4)+(1+O63)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3000.6161921390585</v>
       </c>
     </row>
     <row r="64" spans="4:16">
@@ -13819,52 +13812,52 @@
         <v>63</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1500000000000004</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.6161921390585</v>
       </c>
       <c r="G64">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.61619213905851211</v>
       </c>
       <c r="H64">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>5.8825328713037379</v>
       </c>
       <c r="I64">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.1765065742607477E-4</v>
       </c>
       <c r="J64">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.161921390585122E-6</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.1765065742607477E-4</v>
       </c>
       <c r="L64">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-6.4545793546130877E-8</v>
       </c>
       <c r="M64">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N64">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N64">
+        <f t="shared" si="5"/>
+        <v>-0.60011155328182897</v>
+      </c>
       <c r="O64">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60011155328182897</v>
       </c>
       <c r="P64">
-        <f>(-1/$B$4)+(1+O64)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3000.5577664091452</v>
       </c>
     </row>
     <row r="65" spans="4:16">
@@ -13872,52 +13865,52 @@
         <v>64</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.5577664091452</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.55776640914518794</v>
       </c>
       <c r="H65">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>5.32476646215855</v>
       </c>
       <c r="I65">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-1.0649532924317101E-4</v>
       </c>
       <c r="J65">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.5776640914518796E-6</v>
       </c>
       <c r="K65">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-1.0649532924317101E-4</v>
       </c>
       <c r="L65">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-5.8425729913324174E-8</v>
       </c>
       <c r="M65">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N65">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N65">
+        <f t="shared" si="5"/>
+        <v>-0.60010097609088164</v>
+      </c>
       <c r="O65">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60010097609088164</v>
       </c>
       <c r="P65">
-        <f>(-1/$B$4)+(1+O65)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" si="12"/>
+        <v>3000.5048804544085</v>
       </c>
     </row>
     <row r="66" spans="4:16">
@@ -13925,52 +13918,52 @@
         <v>65</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.25</v>
       </c>
       <c r="F66">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.5048804544085</v>
       </c>
       <c r="G66">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.50488045440852147</v>
       </c>
       <c r="H66">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>4.8198860077500285</v>
       </c>
       <c r="I66">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-9.639772015500058E-5</v>
       </c>
       <c r="J66">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.0488045440852151E-6</v>
       </c>
       <c r="K66">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>-9.639772015500058E-5</v>
       </c>
       <c r="L66">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-5.288595473666646E-8</v>
       </c>
       <c r="M66">
-        <f t="shared" si="3"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N66">
         <f t="shared" si="4"/>
         <v>-0.6</v>
       </c>
+      <c r="N66">
+        <f t="shared" si="5"/>
+        <v>-0.60009140180156562</v>
+      </c>
       <c r="O66">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60009140180156562</v>
       </c>
       <c r="P66">
-        <f>(-1/$B$4)+(1+O66)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" ref="P66:P97" si="13">(-1/$B$4)+(1+O66)/$B$4</f>
+        <v>3000.4570090078282</v>
       </c>
     </row>
     <row r="67" spans="4:16">
@@ -13978,52 +13971,52 @@
         <v>66</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E92" si="11">D67*$B$5</f>
+        <f t="shared" ref="E67:E92" si="14">D67*$B$5</f>
         <v>3.3000000000000003</v>
       </c>
       <c r="F67">
-        <f t="shared" si="5"/>
-        <v>3000</v>
+        <f t="shared" si="6"/>
+        <v>3000.4570090078282</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>-0.45700900782821918</v>
       </c>
       <c r="H67">
-        <f t="shared" si="7"/>
-        <v>2857.1428571428569</v>
+        <f t="shared" si="8"/>
+        <v>4.3628769999218093</v>
       </c>
       <c r="I67">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>-8.7257539998436193E-5</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J92" si="12">G67*$B$1</f>
-        <v>0</v>
+        <f t="shared" ref="J67:J92" si="15">G67*$B$1</f>
+        <v>4.5700900782821919E-6</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K92" si="13">$B$2*H67</f>
-        <v>0</v>
+        <f t="shared" ref="K67:K92" si="16">$B$2*H67</f>
+        <v>-8.7257539998436193E-5</v>
       </c>
       <c r="L67">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-4.7871446580302288E-8</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M92" si="14">$B$6*$B$4</f>
+        <f t="shared" ref="M67:M92" si="17">$B$6*$B$4</f>
         <v>-0.6</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N92" si="15">SUM(J67:M67)</f>
-        <v>-0.6</v>
+        <f t="shared" ref="N67:N92" si="18">SUM(J67:M67)</f>
+        <v>-0.60008273532136669</v>
       </c>
       <c r="O67">
-        <f t="shared" si="10"/>
-        <v>-0.6</v>
+        <f t="shared" si="11"/>
+        <v>-0.60008273532136669</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P92" si="16">(-1/$B$4)+(1+O67)/$B$4</f>
-        <v>3000</v>
+        <f t="shared" ref="P67:P92" si="19">(-1/$B$4)+(1+O67)/$B$4</f>
+        <v>3000.4136766068336</v>
       </c>
     </row>
     <row r="68" spans="4:16">
@@ -14031,52 +14024,52 @@
         <v>67</v>
       </c>
       <c r="E68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.35</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F92" si="17">P67</f>
-        <v>3000</v>
+        <f t="shared" ref="F68:F92" si="20">P67</f>
+        <v>3000.4136766068336</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G92" si="18">$B$6-F68</f>
-        <v>0</v>
+        <f t="shared" ref="G68:G92" si="21">$B$6-F68</f>
+        <v>-0.41367660683363283</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H92" si="19">IF(I68&lt;1,IF(I68&gt;-1,H67+G68,-1/$B$2),1/$B$2)</f>
-        <v>2857.1428571428569</v>
+        <f t="shared" ref="H68:H92" si="22">IF(I68&lt;1,IF(I68&gt;-1,H67+G68,-1/$B$2),1/$B$2)</f>
+        <v>3.9492003930881765</v>
       </c>
       <c r="I68">
-        <f t="shared" ref="I68:I92" si="20">(H67+G68)*$B$2</f>
-        <v>0</v>
+        <f t="shared" ref="I68:I92" si="23">(H67+G68)*$B$2</f>
+        <v>-7.8984007861763542E-5</v>
       </c>
       <c r="J68">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>4.1367660683363289E-6</v>
       </c>
       <c r="K68">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="16"/>
+        <v>-7.8984007861763542E-5</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L92" si="21">$B$3*(G68-G67)</f>
-        <v>0</v>
+        <f t="shared" ref="L68:L92" si="24">$B$3*(G68-G67)</f>
+        <v>-4.3332400994586347E-8</v>
       </c>
       <c r="M68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-0.6</v>
       </c>
       <c r="N68">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
+        <f t="shared" si="18"/>
+        <v>-0.60007489057419439</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O92" si="22">IF(N68&gt;1,1,IF(N68&lt;-1,-1,N68))</f>
-        <v>-0.6</v>
+        <f t="shared" ref="O68:O92" si="25">IF(N68&gt;1,1,IF(N68&lt;-1,-1,N68))</f>
+        <v>-0.60007489057419439</v>
       </c>
       <c r="P68">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <f t="shared" si="19"/>
+        <v>3000.3744528709722</v>
       </c>
     </row>
     <row r="69" spans="4:16">
@@ -14084,52 +14077,52 @@
         <v>68</v>
       </c>
       <c r="E69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.4000000000000004</v>
       </c>
       <c r="F69">
+        <f t="shared" si="20"/>
+        <v>3000.3744528709722</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="21"/>
+        <v>-0.37445287097216351</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="22"/>
+        <v>3.574747522116013</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="23"/>
+        <v>-7.1494950442320269E-5</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="15"/>
+        <v>3.7445287097216354E-6</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="16"/>
+        <v>-7.1494950442320269E-5</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="24"/>
+        <v>-3.9223735861469319E-8</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G69">
+        <v>-0.6</v>
+      </c>
+      <c r="N69">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H69">
+        <v>-0.60006778964546847</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="25"/>
+        <v>-0.60006778964546847</v>
+      </c>
+      <c r="P69">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.3389482273424</v>
       </c>
     </row>
     <row r="70" spans="4:16">
@@ -14137,52 +14130,52 @@
         <v>69</v>
       </c>
       <c r="E70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.45</v>
       </c>
       <c r="F70">
+        <f t="shared" si="20"/>
+        <v>3000.3389482273424</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="21"/>
+        <v>-0.33894822734237096</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="22"/>
+        <v>3.235799294773642</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="23"/>
+        <v>-6.4715985895472851E-5</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="15"/>
+        <v>3.3894822734237099E-6</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="16"/>
+        <v>-6.4715985895472851E-5</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="24"/>
+        <v>-3.5504643629792549E-8</v>
+      </c>
+      <c r="M70">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G70">
+        <v>-0.6</v>
+      </c>
+      <c r="N70">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H70">
+        <v>-0.60006136200826565</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="25"/>
+        <v>-0.60006136200826565</v>
+      </c>
+      <c r="P70">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.3068100413284</v>
       </c>
     </row>
     <row r="71" spans="4:16">
@@ -14190,52 +14183,52 @@
         <v>70</v>
       </c>
       <c r="E71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.5</v>
       </c>
       <c r="F71">
+        <f t="shared" si="20"/>
+        <v>3000.3068100413284</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="21"/>
+        <v>-0.30681004132839007</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="22"/>
+        <v>2.928989253445252</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="23"/>
+        <v>-5.8579785068905043E-5</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="15"/>
+        <v>3.0681004132839009E-6</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="16"/>
+        <v>-5.8579785068905043E-5</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="24"/>
+        <v>-3.213818601398088E-8</v>
+      </c>
+      <c r="M71">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G71">
+        <v>-0.6</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H71">
+        <v>-0.60005554382284165</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="25"/>
+        <v>-0.60005554382284165</v>
+      </c>
+      <c r="P71">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.2777191142086</v>
       </c>
     </row>
     <row r="72" spans="4:16">
@@ -14243,52 +14236,52 @@
         <v>71</v>
       </c>
       <c r="E72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.5500000000000003</v>
       </c>
       <c r="F72">
+        <f t="shared" si="20"/>
+        <v>3000.2777191142086</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="21"/>
+        <v>-0.27771911420859396</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="22"/>
+        <v>2.651270139236658</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="23"/>
+        <v>-5.3025402784733167E-5</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="15"/>
+        <v>2.7771911420859401E-6</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="16"/>
+        <v>-5.3025402784733167E-5</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="24"/>
+        <v>-2.9090927119796103E-8</v>
+      </c>
+      <c r="M72">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G72">
+        <v>-0.6</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H72">
+        <v>-0.60005027730256977</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="25"/>
+        <v>-0.60005027730256977</v>
+      </c>
+      <c r="P72">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.251386512849</v>
       </c>
     </row>
     <row r="73" spans="4:16">
@@ -14296,52 +14289,52 @@
         <v>72</v>
       </c>
       <c r="E73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.6</v>
       </c>
       <c r="F73">
+        <f t="shared" si="20"/>
+        <v>3000.251386512849</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="21"/>
+        <v>-0.25138651284896696</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="22"/>
+        <v>2.399883626387691</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="23"/>
+        <v>-4.7997672527753825E-5</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="15"/>
+        <v>2.5138651284896696E-6</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="16"/>
+        <v>-4.7997672527753825E-5</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="24"/>
+        <v>-2.6332601359627005E-8</v>
+      </c>
+      <c r="M73">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G73">
+        <v>-0.6</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H73">
+        <v>-0.60004551014000063</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="25"/>
+        <v>-0.60004551014000063</v>
+      </c>
+      <c r="P73">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.2275507000031</v>
       </c>
     </row>
     <row r="74" spans="4:16">
@@ -14349,52 +14342,52 @@
         <v>73</v>
       </c>
       <c r="E74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.6500000000000004</v>
       </c>
       <c r="F74">
+        <f t="shared" si="20"/>
+        <v>3000.2275507000031</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="21"/>
+        <v>-0.22755070000312116</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="22"/>
+        <v>2.1723329263845699</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="23"/>
+        <v>-4.3446658527691399E-5</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="15"/>
+        <v>2.2755070000312119E-6</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="16"/>
+        <v>-4.3446658527691399E-5</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="24"/>
+        <v>-2.3835812845845793E-8</v>
+      </c>
+      <c r="M74">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G74">
+        <v>-0.6</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H74">
+        <v>-0.60004119498734043</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="25"/>
+        <v>-0.60004119498734043</v>
+      </c>
+      <c r="P74">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.2059749367022</v>
       </c>
     </row>
     <row r="75" spans="4:16">
@@ -14402,52 +14395,52 @@
         <v>74</v>
       </c>
       <c r="E75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.7</v>
       </c>
       <c r="F75">
+        <f t="shared" si="20"/>
+        <v>3000.2059749367022</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="21"/>
+        <v>-0.20597493670220501</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="22"/>
+        <v>1.9663579896823649</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="23"/>
+        <v>-3.93271597936473E-5</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="15"/>
+        <v>2.0597493670220504E-6</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="16"/>
+        <v>-3.93271597936473E-5</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="24"/>
+        <v>-2.1575763300916149E-8</v>
+      </c>
+      <c r="M75">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G75">
+        <v>-0.6</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H75">
+        <v>-0.60003728898618991</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="25"/>
+        <v>-0.60003728898618991</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.1864449309496</v>
       </c>
     </row>
     <row r="76" spans="4:16">
@@ -14455,52 +14448,52 @@
         <v>75</v>
       </c>
       <c r="E76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.75</v>
       </c>
       <c r="F76">
+        <f t="shared" si="20"/>
+        <v>3000.1864449309496</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="21"/>
+        <v>-0.18644493094961945</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="22"/>
+        <v>1.7799130587327454</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="23"/>
+        <v>-3.5598261174654908E-5</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="15"/>
+        <v>1.8644493094961946E-6</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="16"/>
+        <v>-3.5598261174654908E-5</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="24"/>
+        <v>-1.9530005752585566E-8</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G76">
+        <v>-0.6</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H76">
+        <v>-0.60003375334187092</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="25"/>
+        <v>-0.60003375334187092</v>
+      </c>
+      <c r="P76">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.1687667093547</v>
       </c>
     </row>
     <row r="77" spans="4:16">
@@ -14508,52 +14501,52 @@
         <v>76</v>
       </c>
       <c r="E77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.8000000000000003</v>
       </c>
       <c r="F77">
+        <f t="shared" si="20"/>
+        <v>3000.1687667093547</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="21"/>
+        <v>-0.16876670935471338</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="22"/>
+        <v>1.611146349378032</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="23"/>
+        <v>-3.2222926987560643E-5</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="15"/>
+        <v>1.6876670935471341E-6</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="16"/>
+        <v>-3.2222926987560643E-5</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="24"/>
+        <v>-1.7678221594906062E-8</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G77">
+        <v>-0.6</v>
+      </c>
+      <c r="N77">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H77">
+        <v>-0.60003055293811558</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="25"/>
+        <v>-0.60003055293811558</v>
+      </c>
+      <c r="P77">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.1527646905779</v>
       </c>
     </row>
     <row r="78" spans="4:16">
@@ -14561,52 +14554,52 @@
         <v>77</v>
       </c>
       <c r="E78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.85</v>
       </c>
       <c r="F78">
+        <f t="shared" si="20"/>
+        <v>3000.1527646905779</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="21"/>
+        <v>-0.15276469057789654</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="22"/>
+        <v>1.4583816588001355</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="23"/>
+        <v>-2.9167633176002711E-5</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="15"/>
+        <v>1.5276469057789656E-6</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="16"/>
+        <v>-2.9167633176002711E-5</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="24"/>
+        <v>-1.600201877681684E-8</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G78">
+        <v>-0.6</v>
+      </c>
+      <c r="N78">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H78">
+        <v>-0.600027655988289</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="25"/>
+        <v>-0.600027655988289</v>
+      </c>
+      <c r="P78">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.138279941445</v>
       </c>
     </row>
     <row r="79" spans="4:16">
@@ -14614,52 +14607,52 @@
         <v>78</v>
       </c>
       <c r="E79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="F79">
+        <f t="shared" si="20"/>
+        <v>3000.138279941445</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="21"/>
+        <v>-0.13827994144503464</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="22"/>
+        <v>1.3201017173551008</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="23"/>
+        <v>-2.6402034347102018E-5</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="15"/>
+        <v>1.3827994144503466E-6</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="16"/>
+        <v>-2.6402034347102018E-5</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="24"/>
+        <v>-1.4484749132861907E-8</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G79">
+        <v>-0.6</v>
+      </c>
+      <c r="N79">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H79">
+        <v>-0.60002503371968174</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="25"/>
+        <v>-0.60002503371968174</v>
+      </c>
+      <c r="P79">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.1251685984089</v>
       </c>
     </row>
     <row r="80" spans="4:16">
@@ -14667,52 +14660,52 @@
         <v>79</v>
       </c>
       <c r="E80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3.95</v>
       </c>
       <c r="F80">
+        <f t="shared" si="20"/>
+        <v>3000.1251685984089</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="21"/>
+        <v>-0.12516859840889083</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="22"/>
+        <v>1.19493311894621</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="23"/>
+        <v>-2.3898662378924202E-5</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="15"/>
+        <v>1.2516859840889084E-6</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="16"/>
+        <v>-2.3898662378924202E-5</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="24"/>
+        <v>-1.3111343036143807E-8</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G80">
+        <v>-0.6</v>
+      </c>
+      <c r="N80">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H80">
+        <v>-0.60002266008773786</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="25"/>
+        <v>-0.60002266008773786</v>
+      </c>
+      <c r="P80">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.1133004386893</v>
       </c>
     </row>
     <row r="81" spans="4:16">
@@ -14720,52 +14713,52 @@
         <v>80</v>
       </c>
       <c r="E81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="F81">
+        <f t="shared" si="20"/>
+        <v>3000.1133004386893</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="21"/>
+        <v>-0.11330043868929351</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="22"/>
+        <v>1.0816326802569165</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="23"/>
+        <v>-2.163265360513833E-5</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="15"/>
+        <v>1.1330043868929352E-6</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="16"/>
+        <v>-2.163265360513833E-5</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="24"/>
+        <v>-1.1868159719597315E-8</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G81">
+        <v>-0.6</v>
+      </c>
+      <c r="N81">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H81">
+        <v>-0.6000205115173779</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="25"/>
+        <v>-0.6000205115173779</v>
+      </c>
+      <c r="P81">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.1025575868898</v>
       </c>
     </row>
     <row r="82" spans="4:16">
@@ -14773,52 +14766,52 @@
         <v>81</v>
       </c>
       <c r="E82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.05</v>
       </c>
       <c r="F82">
+        <f t="shared" si="20"/>
+        <v>3000.1025575868898</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="21"/>
+        <v>-0.10255758688981587</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="22"/>
+        <v>0.97907509336710064</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="23"/>
+        <v>-1.9581501867342014E-5</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="15"/>
+        <v>1.0255758688981587E-6</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="16"/>
+        <v>-1.9581501867342014E-5</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="24"/>
+        <v>-1.0742851799477648E-8</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G82">
+        <v>-0.6</v>
+      </c>
+      <c r="N82">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H82">
+        <v>-0.60001856666885023</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="25"/>
+        <v>-0.60001856666885023</v>
+      </c>
+      <c r="P82">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I82">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0928333442512</v>
       </c>
     </row>
     <row r="83" spans="4:16">
@@ -14826,52 +14819,52 @@
         <v>82</v>
       </c>
       <c r="E83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.1000000000000005</v>
       </c>
       <c r="F83">
+        <f t="shared" si="20"/>
+        <v>3000.0928333442512</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="21"/>
+        <v>-9.2833344251175731E-2</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="22"/>
+        <v>0.8862417491159249</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="23"/>
+        <v>-1.7724834982318498E-5</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="15"/>
+        <v>9.2833344251175734E-7</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="16"/>
+        <v>-1.7724834982318498E-5</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="24"/>
+        <v>-9.7242426386401338E-9</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G83">
+        <v>-0.6</v>
+      </c>
+      <c r="N83">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H83">
+        <v>-0.60001680622578246</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="25"/>
+        <v>-0.60001680622578246</v>
+      </c>
+      <c r="P83">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0840311289121</v>
       </c>
     </row>
     <row r="84" spans="4:16">
@@ -14879,52 +14872,52 @@
         <v>83</v>
       </c>
       <c r="E84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.1500000000000004</v>
       </c>
       <c r="F84">
+        <f t="shared" si="20"/>
+        <v>3000.0840311289121</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="21"/>
+        <v>-8.4031128912101849E-2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="22"/>
+        <v>0.80221062020382305</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="23"/>
+        <v>-1.6044212404076462E-5</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="15"/>
+        <v>8.4031128912101856E-7</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="16"/>
+        <v>-1.6044212404076462E-5</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="24"/>
+        <v>-8.8022153390738821E-9</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G84">
+        <v>-0.6</v>
+      </c>
+      <c r="N84">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H84">
+        <v>-0.60001521270333025</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="25"/>
+        <v>-0.60001521270333025</v>
+      </c>
+      <c r="P84">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P84">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0760635166516</v>
       </c>
     </row>
     <row r="85" spans="4:16">
@@ -14932,52 +14925,52 @@
         <v>84</v>
       </c>
       <c r="E85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.2</v>
       </c>
       <c r="F85">
+        <f t="shared" si="20"/>
+        <v>3000.0760635166516</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="21"/>
+        <v>-7.606351665162947E-2</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="22"/>
+        <v>0.72614710355219358</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="23"/>
+        <v>-1.4522942071043873E-5</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="15"/>
+        <v>7.606351665162948E-7</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="16"/>
+        <v>-1.4522942071043873E-5</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="24"/>
+        <v>-7.9676122604723781E-9</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G85">
+        <v>-0.6</v>
+      </c>
+      <c r="N85">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H85">
+        <v>-0.60001377027451674</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="25"/>
+        <v>-0.60001377027451674</v>
+      </c>
+      <c r="P85">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P85">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0688513725836</v>
       </c>
     </row>
     <row r="86" spans="4:16">
@@ -14985,52 +14978,52 @@
         <v>85</v>
       </c>
       <c r="E86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.25</v>
       </c>
       <c r="F86">
+        <f t="shared" si="20"/>
+        <v>3000.0688513725836</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="21"/>
+        <v>-6.8851372583594639E-2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="22"/>
+        <v>0.65729573096859895</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="23"/>
+        <v>-1.3145914619371979E-5</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="15"/>
+        <v>6.8851372583594643E-7</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="16"/>
+        <v>-1.3145914619371979E-5</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="24"/>
+        <v>-7.212144068034831E-9</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G86">
+        <v>-0.6</v>
+      </c>
+      <c r="N86">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H86">
+        <v>-0.60001246461303759</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="25"/>
+        <v>-0.60001246461303759</v>
+      </c>
+      <c r="P86">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I86">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P86">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0623230651881</v>
       </c>
     </row>
     <row r="87" spans="4:16">
@@ -15038,52 +15031,52 @@
         <v>86</v>
       </c>
       <c r="E87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.3</v>
       </c>
       <c r="F87">
+        <f t="shared" si="20"/>
+        <v>3000.0623230651881</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="21"/>
+        <v>-6.2323065188138571E-2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="22"/>
+        <v>0.59497266578046037</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="23"/>
+        <v>-1.1899453315609209E-5</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="15"/>
+        <v>6.2323065188138578E-7</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="16"/>
+        <v>-1.1899453315609209E-5</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="24"/>
+        <v>-6.5283073954560671E-9</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G87">
+        <v>-0.6</v>
+      </c>
+      <c r="N87">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H87">
+        <v>-0.60001128275097115</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="25"/>
+        <v>-0.60001128275097115</v>
+      </c>
+      <c r="P87">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I87">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0564137548558</v>
       </c>
     </row>
     <row r="88" spans="4:16">
@@ -15091,52 +15084,52 @@
         <v>87</v>
       </c>
       <c r="E88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.3500000000000005</v>
       </c>
       <c r="F88">
+        <f t="shared" si="20"/>
+        <v>3000.0564137548558</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="21"/>
+        <v>-5.6413754855839215E-2</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="22"/>
+        <v>0.53855891092462116</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="23"/>
+        <v>-1.0771178218492424E-5</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="15"/>
+        <v>5.6413754855839225E-7</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="16"/>
+        <v>-1.0771178218492424E-5</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="24"/>
+        <v>-5.9093103322993555E-9</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G88">
+        <v>-0.6</v>
+      </c>
+      <c r="N88">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H88">
+        <v>-0.60001021294998025</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="25"/>
+        <v>-0.60001021294998025</v>
+      </c>
+      <c r="P88">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I88">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0510647499013</v>
       </c>
     </row>
     <row r="89" spans="4:16">
@@ -15144,52 +15137,52 @@
         <v>88</v>
       </c>
       <c r="E89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F89">
+        <f t="shared" si="20"/>
+        <v>3000.0510647499013</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="21"/>
+        <v>-5.1064749901343021E-2</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="22"/>
+        <v>0.48749416102327814</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="23"/>
+        <v>-9.7498832204655642E-6</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="15"/>
+        <v>5.106474990134302E-7</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="16"/>
+        <v>-9.7498832204655642E-6</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="24"/>
+        <v>-5.3490049544961944E-9</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G89">
+        <v>-0.6</v>
+      </c>
+      <c r="N89">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H89">
+        <v>-0.60000924458472638</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="25"/>
+        <v>-0.60000924458472638</v>
+      </c>
+      <c r="P89">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0462229236318</v>
       </c>
     </row>
     <row r="90" spans="4:16">
@@ -15197,52 +15190,52 @@
         <v>89</v>
       </c>
       <c r="E90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.45</v>
       </c>
       <c r="F90">
+        <f t="shared" si="20"/>
+        <v>3000.0462229236318</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="21"/>
+        <v>-4.6222923631830781E-2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="22"/>
+        <v>0.44127123739144736</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="23"/>
+        <v>-8.8254247478289474E-6</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="15"/>
+        <v>4.6222923631830785E-7</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="16"/>
+        <v>-8.8254247478289474E-6</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="24"/>
+        <v>-4.841826269512239E-9</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G90">
+        <v>-0.6</v>
+      </c>
+      <c r="N90">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H90">
+        <v>-0.6000083680373377</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="25"/>
+        <v>-0.6000083680373377</v>
+      </c>
+      <c r="P90">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0418401866887</v>
       </c>
     </row>
     <row r="91" spans="4:16">
@@ -15250,52 +15243,52 @@
         <v>90</v>
       </c>
       <c r="E91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.5</v>
       </c>
       <c r="F91">
+        <f t="shared" si="20"/>
+        <v>3000.0418401866887</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="21"/>
+        <v>-4.1840186688659742E-2</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="22"/>
+        <v>0.39943105070278762</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="23"/>
+        <v>-7.9886210140557537E-6</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="15"/>
+        <v>4.1840186688659747E-7</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="16"/>
+        <v>-7.9886210140557537E-6</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="24"/>
+        <v>-4.3827369431710392E-9</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G91">
+        <v>-0.6</v>
+      </c>
+      <c r="N91">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H91">
+        <v>-0.60000757460188414</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="25"/>
+        <v>-0.60000757460188414</v>
+      </c>
+      <c r="P91">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0378730094208</v>
       </c>
     </row>
     <row r="92" spans="4:16">
@@ -15303,52 +15296,52 @@
         <v>91</v>
       </c>
       <c r="E92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4.55</v>
       </c>
       <c r="F92">
+        <f t="shared" si="20"/>
+        <v>3000.0378730094208</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="21"/>
+        <v>-3.7873009420763992E-2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="22"/>
+        <v>0.36155804128202362</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="23"/>
+        <v>-7.2311608256404729E-6</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="15"/>
+        <v>3.7873009420763994E-7</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="16"/>
+        <v>-7.2311608256404729E-6</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="24"/>
+        <v>-3.9671772678957493E-9</v>
+      </c>
+      <c r="M92">
         <f t="shared" si="17"/>
-        <v>3000</v>
-      </c>
-      <c r="G92">
+        <v>-0.6</v>
+      </c>
+      <c r="N92">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H92">
+        <v>-0.60000685639790863</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="25"/>
+        <v>-0.60000685639790863</v>
+      </c>
+      <c r="P92">
         <f t="shared" si="19"/>
-        <v>2857.1428571428569</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="14"/>
-        <v>-0.6</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="15"/>
-        <v>-0.6</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="22"/>
-        <v>-0.6</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="16"/>
-        <v>3000</v>
+        <v>3000.0342819895432</v>
       </c>
     </row>
   </sheetData>
